--- a/BackTest/2019-10-30 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-30 BackTest ORBS.xlsx
@@ -871,17 +871,13 @@
         <v>12.49</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -910,22 +906,14 @@
         <v>12.49</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -953,22 +941,14 @@
         <v>12.495</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -996,17 +976,13 @@
         <v>12.495</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
@@ -1035,22 +1011,14 @@
         <v>12.495</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1078,22 +1046,14 @@
         <v>12.495</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1121,17 +1081,13 @@
         <v>12.495</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1160,22 +1116,14 @@
         <v>12.495</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1151,14 @@
         <v>12.49000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1246,17 +1186,13 @@
         <v>12.49</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1285,22 +1221,14 @@
         <v>12.49</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1328,22 +1256,14 @@
         <v>12.49</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1371,22 +1291,14 @@
         <v>12.485</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1414,22 +1326,14 @@
         <v>12.485</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1457,22 +1361,14 @@
         <v>12.485</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1500,22 +1396,14 @@
         <v>12.49</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1549,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1584,22 +1466,14 @@
         <v>12.485</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1627,22 +1501,14 @@
         <v>12.485</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1670,22 +1536,14 @@
         <v>12.48</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1713,22 +1571,14 @@
         <v>12.475</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1756,22 +1606,14 @@
         <v>12.47</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1799,22 +1641,14 @@
         <v>12.465</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +1676,14 @@
         <v>12.46</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1885,22 +1711,14 @@
         <v>12.46</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1934,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1975,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2098,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2139,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2180,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2221,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2303,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2344,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2385,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2426,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2467,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2549,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2590,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2631,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2672,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2713,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2754,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2795,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2836,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2877,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2918,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2959,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3000,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3041,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3082,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3123,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3164,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3205,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3246,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3287,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3328,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3369,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3410,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3492,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3574,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3656,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3697,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3735,17 +3289,11 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3776,17 +3324,11 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3817,19 +3359,13 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>1.027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3858,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -5080,13 +4616,17 @@
         <v>12.66</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>12.5</v>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>

--- a/BackTest/2019-10-30 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-30 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C2" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E2" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>23420</v>
       </c>
       <c r="G2" t="n">
-        <v>12.47</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C3" t="n">
         <v>12.6</v>
@@ -477,13 +477,13 @@
         <v>12.6</v>
       </c>
       <c r="E3" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F3" t="n">
-        <v>150011</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>12.475</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>12.5</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E4" t="n">
         <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>12375.1612</v>
+        <v>150011</v>
       </c>
       <c r="G4" t="n">
-        <v>12.48000000000001</v>
+        <v>12.51</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>12.5</v>
       </c>
       <c r="F5" t="n">
-        <v>10768.9135</v>
+        <v>12375.1612</v>
       </c>
       <c r="G5" t="n">
-        <v>12.48500000000001</v>
+        <v>12.51</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D6" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E6" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F6" t="n">
-        <v>66.9841</v>
+        <v>10768.9135</v>
       </c>
       <c r="G6" t="n">
-        <v>12.49500000000001</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D7" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E7" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F7" t="n">
-        <v>29231.0865</v>
+        <v>66.9841</v>
       </c>
       <c r="G7" t="n">
-        <v>12.49000000000001</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>12.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>29231.0865</v>
       </c>
       <c r="G8" t="n">
-        <v>12.49</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C9" t="n">
         <v>12.5</v>
@@ -687,13 +687,13 @@
         <v>12.5</v>
       </c>
       <c r="E9" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="n">
-        <v>12.49</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C10" t="n">
         <v>12.5</v>
@@ -722,13 +722,13 @@
         <v>12.5</v>
       </c>
       <c r="E10" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F10" t="n">
-        <v>72.72</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>12.495</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C11" t="n">
         <v>12.5</v>
@@ -757,13 +757,13 @@
         <v>12.5</v>
       </c>
       <c r="E11" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>72.72</v>
       </c>
       <c r="G11" t="n">
-        <v>12.495</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>12.4</v>
       </c>
       <c r="C12" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E12" t="n">
         <v>12.4</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>12.49</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C13" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E13" t="n">
         <v>12.4</v>
       </c>
       <c r="F13" t="n">
-        <v>902.2123</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>12.49</v>
+        <v>12.505</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>12.5</v>
       </c>
       <c r="E14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F14" t="n">
-        <v>376.8681</v>
+        <v>902.2123</v>
       </c>
       <c r="G14" t="n">
-        <v>12.49</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>12.5</v>
       </c>
       <c r="F15" t="n">
-        <v>338.8798</v>
+        <v>376.8681</v>
       </c>
       <c r="G15" t="n">
-        <v>12.49</v>
+        <v>12.50666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>12.5</v>
       </c>
       <c r="F16" t="n">
-        <v>304.7207</v>
+        <v>338.8798</v>
       </c>
       <c r="G16" t="n">
-        <v>12.495</v>
+        <v>12.505</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>12.5</v>
       </c>
       <c r="F17" t="n">
-        <v>520.3899</v>
+        <v>304.7207</v>
       </c>
       <c r="G17" t="n">
-        <v>12.495</v>
+        <v>12.50333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>12.5</v>
       </c>
       <c r="F18" t="n">
-        <v>221.5495</v>
+        <v>520.3899</v>
       </c>
       <c r="G18" t="n">
-        <v>12.495</v>
+        <v>12.50166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>12.5</v>
       </c>
       <c r="F19" t="n">
-        <v>199.2173</v>
+        <v>221.5495</v>
       </c>
       <c r="G19" t="n">
-        <v>12.495</v>
+        <v>12.5</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>12.5</v>
       </c>
       <c r="F20" t="n">
-        <v>179.1362</v>
+        <v>199.2173</v>
       </c>
       <c r="G20" t="n">
-        <v>12.495</v>
+        <v>12.49833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>12.5</v>
       </c>
       <c r="F21" t="n">
-        <v>744.2989</v>
+        <v>179.1362</v>
       </c>
       <c r="G21" t="n">
-        <v>12.495</v>
+        <v>12.49666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>12.5</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8759</v>
+        <v>744.2989</v>
       </c>
       <c r="G22" t="n">
-        <v>12.49000000000001</v>
+        <v>12.49666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>12.5</v>
       </c>
       <c r="F23" t="n">
-        <v>284.9348</v>
+        <v>316.8759</v>
       </c>
       <c r="G23" t="n">
-        <v>12.49</v>
+        <v>12.495</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>12.5</v>
       </c>
       <c r="C24" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D24" t="n">
         <v>12.5</v>
       </c>
       <c r="E24" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F24" t="n">
-        <v>313.2134</v>
+        <v>284.9348</v>
       </c>
       <c r="G24" t="n">
-        <v>12.49</v>
+        <v>12.49333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>12.5</v>
       </c>
       <c r="C25" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D25" t="n">
         <v>12.5</v>
       </c>
       <c r="E25" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F25" t="n">
-        <v>437.5512</v>
+        <v>313.2134</v>
       </c>
       <c r="G25" t="n">
-        <v>12.49</v>
+        <v>12.49166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>12.5</v>
       </c>
       <c r="F26" t="n">
-        <v>186.282</v>
+        <v>437.5512</v>
       </c>
       <c r="G26" t="n">
-        <v>12.485</v>
+        <v>12.49</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>12.5</v>
       </c>
       <c r="F27" t="n">
-        <v>167.5047</v>
+        <v>186.282</v>
       </c>
       <c r="G27" t="n">
-        <v>12.485</v>
+        <v>12.49</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>12.5</v>
       </c>
       <c r="C28" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D28" t="n">
         <v>12.5</v>
       </c>
       <c r="E28" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F28" t="n">
-        <v>153406.9869</v>
+        <v>167.5047</v>
       </c>
       <c r="G28" t="n">
-        <v>12.485</v>
+        <v>12.49</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>12.5</v>
       </c>
       <c r="C29" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D29" t="n">
         <v>12.5</v>
       </c>
       <c r="E29" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F29" t="n">
-        <v>61</v>
+        <v>153406.9869</v>
       </c>
       <c r="G29" t="n">
-        <v>12.49</v>
+        <v>12.48666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,19 +1413,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E30" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F30" t="n">
-        <v>69686.4149</v>
+        <v>61</v>
       </c>
       <c r="G30" t="n">
         <v>12.485</v>
@@ -1460,10 +1460,10 @@
         <v>12.4</v>
       </c>
       <c r="F31" t="n">
-        <v>44963.598</v>
+        <v>69686.4149</v>
       </c>
       <c r="G31" t="n">
-        <v>12.485</v>
+        <v>12.48166666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>12.4</v>
       </c>
       <c r="F32" t="n">
-        <v>3011.0325</v>
+        <v>44963.598</v>
       </c>
       <c r="G32" t="n">
-        <v>12.485</v>
+        <v>12.48</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>12.4</v>
       </c>
       <c r="F33" t="n">
-        <v>45720.4809</v>
+        <v>3011.0325</v>
       </c>
       <c r="G33" t="n">
-        <v>12.48</v>
+        <v>12.47833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>12.4</v>
       </c>
       <c r="F34" t="n">
-        <v>33434.4569</v>
+        <v>45720.4809</v>
       </c>
       <c r="G34" t="n">
-        <v>12.475</v>
+        <v>12.47666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>12.4</v>
       </c>
       <c r="F35" t="n">
-        <v>11961.0624</v>
+        <v>33434.4569</v>
       </c>
       <c r="G35" t="n">
-        <v>12.47</v>
+        <v>12.47499999999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>12.4</v>
       </c>
       <c r="F36" t="n">
-        <v>70143.99980000001</v>
+        <v>11961.0624</v>
       </c>
       <c r="G36" t="n">
-        <v>12.465</v>
+        <v>12.47333333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>12.4</v>
       </c>
       <c r="C37" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D37" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E37" t="n">
         <v>12.4</v>
       </c>
       <c r="F37" t="n">
-        <v>263159.3201</v>
+        <v>70143.99980000001</v>
       </c>
       <c r="G37" t="n">
-        <v>12.46</v>
+        <v>12.47333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C38" t="n">
         <v>12.5</v>
@@ -1702,23 +1702,29 @@
         <v>12.5</v>
       </c>
       <c r="E38" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F38" t="n">
-        <v>168667.6749</v>
+        <v>263159.3201</v>
       </c>
       <c r="G38" t="n">
-        <v>12.46</v>
+        <v>12.47333333333333</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1734,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C39" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D39" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E39" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F39" t="n">
-        <v>69250.34</v>
+        <v>168667.6749</v>
       </c>
       <c r="G39" t="n">
-        <v>12.465</v>
+        <v>12.47499999999999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1759,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1775,10 +1785,10 @@
         <v>12.6</v>
       </c>
       <c r="F40" t="n">
-        <v>10425</v>
+        <v>69250.34</v>
       </c>
       <c r="G40" t="n">
-        <v>12.47</v>
+        <v>12.47833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1798,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1824,10 @@
         <v>12.6</v>
       </c>
       <c r="F41" t="n">
-        <v>160091.309</v>
+        <v>10425</v>
       </c>
       <c r="G41" t="n">
-        <v>12.475</v>
+        <v>12.48</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1837,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1863,10 @@
         <v>12.6</v>
       </c>
       <c r="F42" t="n">
-        <v>178526.0396</v>
+        <v>160091.309</v>
       </c>
       <c r="G42" t="n">
-        <v>12.48</v>
+        <v>12.48166666666666</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1876,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1871,16 +1893,16 @@
         <v>12.6</v>
       </c>
       <c r="C43" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D43" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E43" t="n">
         <v>12.6</v>
       </c>
       <c r="F43" t="n">
-        <v>912</v>
+        <v>178526.0396</v>
       </c>
       <c r="G43" t="n">
         <v>12.485</v>
@@ -1893,7 +1915,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1906,16 +1932,16 @@
         <v>12.6</v>
       </c>
       <c r="C44" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D44" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E44" t="n">
         <v>12.6</v>
       </c>
       <c r="F44" t="n">
-        <v>69544.63559999999</v>
+        <v>912</v>
       </c>
       <c r="G44" t="n">
         <v>12.49</v>
@@ -1928,7 +1954,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +1980,10 @@
         <v>12.6</v>
       </c>
       <c r="F45" t="n">
-        <v>139272.5113</v>
+        <v>69544.63559999999</v>
       </c>
       <c r="G45" t="n">
-        <v>12.495</v>
+        <v>12.49333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +1993,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2007,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C46" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D46" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E46" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F46" t="n">
-        <v>2112.9266</v>
+        <v>139272.5113</v>
       </c>
       <c r="G46" t="n">
-        <v>12.49</v>
+        <v>12.49666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2032,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2046,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C47" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D47" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E47" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F47" t="n">
-        <v>6699</v>
+        <v>2112.9266</v>
       </c>
       <c r="G47" t="n">
-        <v>12.49</v>
+        <v>12.49666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2071,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2097,10 @@
         <v>12.5</v>
       </c>
       <c r="F48" t="n">
-        <v>2112.9266</v>
+        <v>6699</v>
       </c>
       <c r="G48" t="n">
-        <v>12.49</v>
+        <v>12.495</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2110,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,10 +2136,10 @@
         <v>12.5</v>
       </c>
       <c r="F49" t="n">
-        <v>38584.5907</v>
+        <v>2112.9266</v>
       </c>
       <c r="G49" t="n">
-        <v>12.49</v>
+        <v>12.495</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2149,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2163,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C50" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E50" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>38584.5907</v>
       </c>
       <c r="G50" t="n">
-        <v>12.5</v>
+        <v>12.49666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2188,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2160,10 +2214,10 @@
         <v>12.6</v>
       </c>
       <c r="F51" t="n">
-        <v>161279.4046</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>12.51</v>
+        <v>12.49833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2227,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2241,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E52" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F52" t="n">
-        <v>10398.9375</v>
+        <v>161279.4046</v>
       </c>
       <c r="G52" t="n">
-        <v>12.515</v>
+        <v>12.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2266,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2280,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C53" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D53" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E53" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F53" t="n">
-        <v>3337.0973</v>
+        <v>10398.9375</v>
       </c>
       <c r="G53" t="n">
-        <v>12.525</v>
+        <v>12.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2305,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2265,10 +2331,10 @@
         <v>12.6</v>
       </c>
       <c r="F54" t="n">
-        <v>4212.9027</v>
+        <v>3337.0973</v>
       </c>
       <c r="G54" t="n">
-        <v>12.535</v>
+        <v>12.50166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2344,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2370,10 @@
         <v>12.6</v>
       </c>
       <c r="F55" t="n">
-        <v>79365.0793</v>
+        <v>4212.9027</v>
       </c>
       <c r="G55" t="n">
-        <v>12.545</v>
+        <v>12.50333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2383,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2338,7 +2412,7 @@
         <v>79365.0793</v>
       </c>
       <c r="G56" t="n">
-        <v>12.555</v>
+        <v>12.505</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2422,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2436,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C57" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D57" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E57" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F57" t="n">
-        <v>7534.6558</v>
+        <v>79365.0793</v>
       </c>
       <c r="G57" t="n">
-        <v>12.56</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2461,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2475,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C58" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D58" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E58" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F58" t="n">
-        <v>131042.9365</v>
+        <v>7534.6558</v>
       </c>
       <c r="G58" t="n">
-        <v>12.565</v>
+        <v>12.51</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2500,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2431,19 +2517,19 @@
         <v>12.6</v>
       </c>
       <c r="C59" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D59" t="n">
         <v>12.6</v>
       </c>
       <c r="E59" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F59" t="n">
-        <v>3593.0595</v>
+        <v>131042.9365</v>
       </c>
       <c r="G59" t="n">
-        <v>12.565</v>
+        <v>12.51166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2539,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2553,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C60" t="n">
         <v>12.5</v>
       </c>
       <c r="D60" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E60" t="n">
         <v>12.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>3593.0595</v>
       </c>
       <c r="G60" t="n">
-        <v>12.56</v>
+        <v>12.51166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2578,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2604,10 @@
         <v>12.5</v>
       </c>
       <c r="F61" t="n">
-        <v>23993.1009</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>12.555</v>
+        <v>12.51166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2617,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2643,10 @@
         <v>12.5</v>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>23993.1009</v>
       </c>
       <c r="G62" t="n">
-        <v>12.55</v>
+        <v>12.51166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2656,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2682,10 @@
         <v>12.5</v>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>12.545</v>
+        <v>12.51</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2695,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2721,10 @@
         <v>12.5</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G64" t="n">
-        <v>12.54</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2734,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2760,10 @@
         <v>12.5</v>
       </c>
       <c r="F65" t="n">
-        <v>282472.2016</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>12.535</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2773,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2787,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C66" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D66" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E66" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>282472.2016</v>
       </c>
       <c r="G66" t="n">
-        <v>12.545</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2812,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +2838,10 @@
         <v>12.6</v>
       </c>
       <c r="F67" t="n">
-        <v>220000</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>12.55</v>
+        <v>12.50833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2851,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2877,10 @@
         <v>12.6</v>
       </c>
       <c r="F68" t="n">
-        <v>3710</v>
+        <v>220000</v>
       </c>
       <c r="G68" t="n">
-        <v>12.555</v>
+        <v>12.51</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2890,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2904,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C69" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D69" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E69" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F69" t="n">
-        <v>4066.3587</v>
+        <v>3710</v>
       </c>
       <c r="G69" t="n">
-        <v>12.555</v>
+        <v>12.51166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +2929,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2943,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C70" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D70" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E70" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F70" t="n">
-        <v>51</v>
+        <v>4066.3587</v>
       </c>
       <c r="G70" t="n">
-        <v>12.555</v>
+        <v>12.51166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +2968,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2982,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C71" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D71" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E71" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="G71" t="n">
-        <v>12.55</v>
+        <v>12.51333333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3007,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3021,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C72" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D72" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E72" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F72" t="n">
-        <v>23201.6694</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>12.555</v>
+        <v>12.51333333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3046,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2930,10 +3072,10 @@
         <v>12.6</v>
       </c>
       <c r="F73" t="n">
-        <v>38077.7808</v>
+        <v>23201.6694</v>
       </c>
       <c r="G73" t="n">
-        <v>12.555</v>
+        <v>12.51666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3085,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2965,10 +3111,10 @@
         <v>12.6</v>
       </c>
       <c r="F74" t="n">
-        <v>15271.5814</v>
+        <v>38077.7808</v>
       </c>
       <c r="G74" t="n">
-        <v>12.555</v>
+        <v>12.51833333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3124,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3000,10 +3150,10 @@
         <v>12.6</v>
       </c>
       <c r="F75" t="n">
-        <v>370297.4845</v>
+        <v>15271.5814</v>
       </c>
       <c r="G75" t="n">
-        <v>12.555</v>
+        <v>12.52</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3163,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3177,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C76" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D76" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E76" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F76" t="n">
-        <v>291823.0708</v>
+        <v>370297.4845</v>
       </c>
       <c r="G76" t="n">
-        <v>12.56</v>
+        <v>12.52166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3202,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3228,10 @@
         <v>12.7</v>
       </c>
       <c r="F77" t="n">
-        <v>255399.7244</v>
+        <v>291823.0708</v>
       </c>
       <c r="G77" t="n">
-        <v>12.57</v>
+        <v>12.52500000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3241,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3096,19 +3258,19 @@
         <v>12.7</v>
       </c>
       <c r="C78" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D78" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E78" t="n">
         <v>12.7</v>
       </c>
       <c r="F78" t="n">
-        <v>153456.8973</v>
+        <v>255399.7244</v>
       </c>
       <c r="G78" t="n">
-        <v>12.575</v>
+        <v>12.52833333333334</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3280,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3294,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C79" t="n">
         <v>12.8</v>
@@ -3137,13 +3303,13 @@
         <v>12.8</v>
       </c>
       <c r="E79" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F79" t="n">
-        <v>253845.703</v>
+        <v>153456.8973</v>
       </c>
       <c r="G79" t="n">
-        <v>12.585</v>
+        <v>12.53333333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3319,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3336,19 @@
         <v>12.8</v>
       </c>
       <c r="C80" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D80" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E80" t="n">
         <v>12.8</v>
       </c>
       <c r="F80" t="n">
-        <v>216898.259</v>
+        <v>253845.703</v>
       </c>
       <c r="G80" t="n">
-        <v>12.6</v>
+        <v>12.53833333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3358,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3372,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="C81" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D81" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="F81" t="n">
-        <v>264332.8582</v>
+        <v>216898.259</v>
       </c>
       <c r="G81" t="n">
-        <v>12.625</v>
+        <v>12.54500000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3397,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3236,19 +3414,19 @@
         <v>13</v>
       </c>
       <c r="C82" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D82" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E82" t="n">
         <v>13</v>
       </c>
       <c r="F82" t="n">
-        <v>23090</v>
+        <v>264332.8582</v>
       </c>
       <c r="G82" t="n">
-        <v>12.65</v>
+        <v>12.55500000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3436,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3271,19 +3453,19 @@
         <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E83" t="n">
         <v>13</v>
       </c>
       <c r="F83" t="n">
-        <v>70257.62480000001</v>
+        <v>23090</v>
       </c>
       <c r="G83" t="n">
-        <v>12.675</v>
+        <v>12.56333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,10 +3475,12 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3306,19 +3490,19 @@
         <v>13</v>
       </c>
       <c r="C84" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D84" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E84" t="n">
         <v>13</v>
       </c>
-      <c r="E84" t="n">
-        <v>12.8</v>
-      </c>
       <c r="F84" t="n">
-        <v>89315.57399999999</v>
+        <v>70257.62480000001</v>
       </c>
       <c r="G84" t="n">
-        <v>12.7</v>
+        <v>12.57333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,28 +3522,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C85" t="n">
         <v>12.9</v>
       </c>
       <c r="D85" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E85" t="n">
         <v>12.8</v>
       </c>
       <c r="F85" t="n">
-        <v>63702.71934496124</v>
+        <v>89315.57399999999</v>
       </c>
       <c r="G85" t="n">
-        <v>12.715</v>
+        <v>12.58166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3373,7 +3557,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C86" t="n">
         <v>12.9</v>
@@ -3382,13 +3566,13 @@
         <v>12.9</v>
       </c>
       <c r="E86" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F86" t="n">
-        <v>15.8062</v>
+        <v>63702.71934496124</v>
       </c>
       <c r="G86" t="n">
-        <v>12.73</v>
+        <v>12.58833333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3595,19 @@
         <v>12.9</v>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D87" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E87" t="n">
         <v>12.9</v>
       </c>
       <c r="F87" t="n">
-        <v>40908.92925503876</v>
+        <v>15.8062</v>
       </c>
       <c r="G87" t="n">
-        <v>12.745</v>
+        <v>12.595</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,7 +3627,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C88" t="n">
         <v>13</v>
@@ -3452,13 +3636,13 @@
         <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F88" t="n">
-        <v>39728.0769</v>
+        <v>40908.92925503876</v>
       </c>
       <c r="G88" t="n">
-        <v>12.765</v>
+        <v>12.60333333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3665,19 @@
         <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E89" t="n">
         <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>421394.5374</v>
+        <v>39728.0769</v>
       </c>
       <c r="G89" t="n">
-        <v>12.79</v>
+        <v>12.61333333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3697,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D90" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E90" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F90" t="n">
-        <v>12.5151</v>
+        <v>421394.5374</v>
       </c>
       <c r="G90" t="n">
-        <v>12.82</v>
+        <v>12.62333333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3732,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C91" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="D91" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E91" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="F91" t="n">
-        <v>22902.945</v>
+        <v>12.5151</v>
       </c>
       <c r="G91" t="n">
-        <v>12.845</v>
+        <v>12.63666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3767,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C92" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D92" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E92" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F92" t="n">
-        <v>28.1439</v>
+        <v>22902.945</v>
       </c>
       <c r="G92" t="n">
-        <v>12.87</v>
+        <v>12.64500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3802,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C93" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F93" t="n">
-        <v>7000</v>
+        <v>28.1439</v>
       </c>
       <c r="G93" t="n">
-        <v>12.89</v>
+        <v>12.65666666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3837,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D94" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E94" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>21.3358</v>
+        <v>7000</v>
       </c>
       <c r="G94" t="n">
-        <v>12.915</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3872,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C95" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F95" t="n">
-        <v>10500</v>
+        <v>21.3358</v>
       </c>
       <c r="G95" t="n">
-        <v>12.935</v>
+        <v>12.67833333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3907,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C96" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D96" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>34265.5646</v>
+        <v>10500</v>
       </c>
       <c r="G96" t="n">
-        <v>12.945</v>
+        <v>12.68833333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3942,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D97" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F97" t="n">
-        <v>2877.729478625954</v>
+        <v>34265.5646</v>
       </c>
       <c r="G97" t="n">
-        <v>12.965</v>
+        <v>12.69666666666668</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3977,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C98" t="n">
         <v>13</v>
       </c>
       <c r="D98" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
       </c>
       <c r="F98" t="n">
-        <v>1427</v>
+        <v>2877.729478625954</v>
       </c>
       <c r="G98" t="n">
-        <v>12.98</v>
+        <v>12.70500000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +4012,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C99" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D99" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E99" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F99" t="n">
-        <v>50005.1114</v>
+        <v>1427</v>
       </c>
       <c r="G99" t="n">
-        <v>12.985</v>
+        <v>12.71333333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4047,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C100" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E100" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F100" t="n">
-        <v>16.0769</v>
+        <v>50005.1114</v>
       </c>
       <c r="G100" t="n">
-        <v>12.995</v>
+        <v>12.71833333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3913,7 +4097,7 @@
         <v>16.0769</v>
       </c>
       <c r="G101" t="n">
-        <v>12.995</v>
+        <v>12.72500000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4117,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C102" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D102" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E102" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F102" t="n">
-        <v>25070.223</v>
+        <v>16.0769</v>
       </c>
       <c r="G102" t="n">
-        <v>12.985</v>
+        <v>12.73166666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +4164,10 @@
         <v>12.8</v>
       </c>
       <c r="F103" t="n">
-        <v>75837.72229999999</v>
+        <v>25070.223</v>
       </c>
       <c r="G103" t="n">
-        <v>12.975</v>
+        <v>12.73500000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4199,10 @@
         <v>12.8</v>
       </c>
       <c r="F104" t="n">
-        <v>142471.3514</v>
+        <v>75837.72229999999</v>
       </c>
       <c r="G104" t="n">
-        <v>12.965</v>
+        <v>12.73666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4222,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>142471.3514</v>
       </c>
       <c r="G105" t="n">
-        <v>12.97</v>
+        <v>12.74</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4257,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F106" t="n">
-        <v>39362.1092</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>12.965</v>
+        <v>12.745</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4292,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C107" t="n">
         <v>12.8</v>
       </c>
       <c r="D107" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E107" t="n">
         <v>12.8</v>
       </c>
       <c r="F107" t="n">
-        <v>14168.503</v>
+        <v>39362.1092</v>
       </c>
       <c r="G107" t="n">
-        <v>12.965</v>
+        <v>12.75166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4327,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C108" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D108" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E108" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F108" t="n">
-        <v>197997.5747</v>
+        <v>14168.503</v>
       </c>
       <c r="G108" t="n">
-        <v>12.95</v>
+        <v>12.75666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4374,10 @@
         <v>12.7</v>
       </c>
       <c r="F109" t="n">
-        <v>50694.1865</v>
+        <v>197997.5747</v>
       </c>
       <c r="G109" t="n">
-        <v>12.935</v>
+        <v>12.76</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4397,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C110" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D110" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E110" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F110" t="n">
-        <v>269058</v>
+        <v>50694.1865</v>
       </c>
       <c r="G110" t="n">
-        <v>12.905</v>
+        <v>12.76333333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4432,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C111" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D111" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E111" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F111" t="n">
-        <v>45848.2164</v>
+        <v>269058</v>
       </c>
       <c r="G111" t="n">
-        <v>12.89</v>
+        <v>12.76333333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,19 +4479,23 @@
         <v>12.7</v>
       </c>
       <c r="F112" t="n">
-        <v>10</v>
+        <v>45848.2164</v>
       </c>
       <c r="G112" t="n">
-        <v>12.87</v>
+        <v>12.765</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K112" t="n">
+        <v>12.6</v>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
@@ -4318,22 +4506,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C113" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D113" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E113" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F113" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>12.85</v>
+        <v>12.76833333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4342,8 +4530,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4356,29 +4550,37 @@
         <v>12.6</v>
       </c>
       <c r="C114" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F114" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12.76833333333334</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
         <v>12.7</v>
       </c>
-      <c r="D114" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F114" t="n">
-        <v>264200.1673</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12.825</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4391,19 +4593,19 @@
         <v>12.6</v>
       </c>
       <c r="C115" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D115" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F115" t="n">
-        <v>413478.1455</v>
+        <v>264200.1673</v>
       </c>
       <c r="G115" t="n">
-        <v>12.805</v>
+        <v>12.77</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4625,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C116" t="n">
         <v>12.5</v>
       </c>
       <c r="D116" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E116" t="n">
         <v>12.5</v>
       </c>
       <c r="F116" t="n">
-        <v>39421.0683</v>
+        <v>413478.1455</v>
       </c>
       <c r="G116" t="n">
-        <v>12.785</v>
+        <v>12.76833333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4672,10 @@
         <v>12.5</v>
       </c>
       <c r="F117" t="n">
-        <v>37450.0149</v>
+        <v>39421.0683</v>
       </c>
       <c r="G117" t="n">
-        <v>12.755</v>
+        <v>12.76666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4707,10 @@
         <v>12.5</v>
       </c>
       <c r="F118" t="n">
-        <v>119742.5977</v>
+        <v>37450.0149</v>
       </c>
       <c r="G118" t="n">
-        <v>12.73</v>
+        <v>12.76666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4742,10 @@
         <v>12.5</v>
       </c>
       <c r="F119" t="n">
-        <v>31515.999</v>
+        <v>119742.5977</v>
       </c>
       <c r="G119" t="n">
-        <v>12.71</v>
+        <v>12.765</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4777,10 @@
         <v>12.5</v>
       </c>
       <c r="F120" t="n">
-        <v>49204.8865</v>
+        <v>31515.999</v>
       </c>
       <c r="G120" t="n">
-        <v>12.685</v>
+        <v>12.765</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,25 +4812,56 @@
         <v>12.5</v>
       </c>
       <c r="F121" t="n">
-        <v>408.1549</v>
+        <v>49204.8865</v>
       </c>
       <c r="G121" t="n">
-        <v>12.66</v>
+        <v>12.765</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K121" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>408.1549</v>
+      </c>
+      <c r="G122" t="n">
+        <v>12.765</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-30 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>23420</v>
       </c>
       <c r="G2" t="n">
+        <v>12.48666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>12.48666666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>12.50833333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>150011</v>
       </c>
       <c r="G4" t="n">
+        <v>12.49333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>12.51</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>12375.1612</v>
       </c>
       <c r="G5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H5" t="n">
         <v>12.51</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10768.9135</v>
       </c>
       <c r="G6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H6" t="n">
         <v>12.50833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>66.9841</v>
       </c>
       <c r="G7" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>12.50833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>29231.0865</v>
       </c>
       <c r="G8" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>1000</v>
       </c>
       <c r="G9" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>31</v>
       </c>
       <c r="G10" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>72.72</v>
       </c>
       <c r="G11" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>20</v>
       </c>
       <c r="G12" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>12.505</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>902.2123</v>
       </c>
       <c r="G14" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>376.8681</v>
       </c>
       <c r="G15" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>12.50666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>338.8798</v>
       </c>
       <c r="G16" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.505</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>304.7207</v>
       </c>
       <c r="G17" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.50333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>520.3899</v>
       </c>
       <c r="G18" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.50166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,15 +1102,18 @@
         <v>12.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>199.2173</v>
       </c>
       <c r="G20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H20" t="n">
         <v>12.49833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>179.1362</v>
       </c>
       <c r="G21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H21" t="n">
         <v>12.49666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>744.2989</v>
       </c>
       <c r="G22" t="n">
+        <v>12.49333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>12.49666666666667</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>316.8759</v>
       </c>
       <c r="G23" t="n">
+        <v>12.49333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>12.495</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1221,15 +1292,18 @@
         <v>12.49333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12.49333333333333</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>313.2134</v>
       </c>
       <c r="G25" t="n">
+        <v>12.48666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>12.49166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>437.5512</v>
       </c>
       <c r="G26" t="n">
+        <v>12.48666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.49</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>186.282</v>
       </c>
       <c r="G27" t="n">
+        <v>12.48666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.49</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>167.5047</v>
       </c>
       <c r="G28" t="n">
+        <v>12.49333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.49</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1396,15 +1482,18 @@
         <v>12.48666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12.48666666666666</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>61</v>
       </c>
       <c r="G30" t="n">
+        <v>12.48666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.485</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>69686.4149</v>
       </c>
       <c r="G31" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.48166666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>44963.598</v>
       </c>
       <c r="G32" t="n">
+        <v>12.47333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.48</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>3011.0325</v>
       </c>
       <c r="G33" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.47833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,25 @@
         <v>45720.4809</v>
       </c>
       <c r="G34" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.47666666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1711,29 @@
         <v>33434.4569</v>
       </c>
       <c r="G35" t="n">
+        <v>12.45333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.47499999999999</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1757,29 @@
         <v>11961.0624</v>
       </c>
       <c r="G36" t="n">
+        <v>12.44666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.47333333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1803,25 @@
         <v>70143.99980000001</v>
       </c>
       <c r="G37" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.47333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,24 +1845,29 @@
         <v>263159.3201</v>
       </c>
       <c r="G38" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.47333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1749,22 +1891,27 @@
         <v>168667.6749</v>
       </c>
       <c r="G39" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.47499999999999</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1788,22 +1935,27 @@
         <v>69250.34</v>
       </c>
       <c r="G40" t="n">
+        <v>12.45333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.47833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1827,22 +1979,27 @@
         <v>10425</v>
       </c>
       <c r="G41" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.48</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,22 +2023,27 @@
         <v>160091.309</v>
       </c>
       <c r="G42" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.48166666666666</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1905,22 +2067,27 @@
         <v>178526.0396</v>
       </c>
       <c r="G43" t="n">
+        <v>12.47333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.485</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1944,22 +2111,27 @@
         <v>912</v>
       </c>
       <c r="G44" t="n">
+        <v>12.49333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.49</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1983,22 +2155,27 @@
         <v>69544.63559999999</v>
       </c>
       <c r="G45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.49333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2022,22 +2199,27 @@
         <v>139272.5113</v>
       </c>
       <c r="G46" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.49666666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2061,22 +2243,27 @@
         <v>2112.9266</v>
       </c>
       <c r="G47" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.49666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2100,22 +2287,27 @@
         <v>6699</v>
       </c>
       <c r="G48" t="n">
+        <v>12.51999999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.495</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2139,22 +2331,27 @@
         <v>2112.9266</v>
       </c>
       <c r="G49" t="n">
+        <v>12.52666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.495</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,22 +2375,27 @@
         <v>38584.5907</v>
       </c>
       <c r="G50" t="n">
+        <v>12.53333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.49666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2217,22 +2419,27 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.49833333333333</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2256,22 +2463,29 @@
         <v>161279.4046</v>
       </c>
       <c r="G52" t="n">
-        <v>12.5</v>
+        <v>12.55999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L52" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2295,22 +2509,27 @@
         <v>10398.9375</v>
       </c>
       <c r="G53" t="n">
-        <v>12.5</v>
+        <v>12.55999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2334,22 +2553,27 @@
         <v>3337.0973</v>
       </c>
       <c r="G54" t="n">
+        <v>12.56666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.50166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,22 +2597,27 @@
         <v>4212.9027</v>
       </c>
       <c r="G55" t="n">
+        <v>12.56666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.50333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,22 +2641,27 @@
         <v>79365.0793</v>
       </c>
       <c r="G56" t="n">
+        <v>12.56666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.505</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2451,22 +2685,27 @@
         <v>79365.0793</v>
       </c>
       <c r="G57" t="n">
+        <v>12.56666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.50833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,22 +2729,27 @@
         <v>7534.6558</v>
       </c>
       <c r="G58" t="n">
+        <v>12.55999999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.51</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,22 +2773,27 @@
         <v>131042.9365</v>
       </c>
       <c r="G59" t="n">
+        <v>12.55333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.51166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,22 +2817,27 @@
         <v>3593.0595</v>
       </c>
       <c r="G60" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.51166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2607,22 +2861,27 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
+        <v>12.53999999999999</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.51166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2646,22 +2905,29 @@
         <v>23993.1009</v>
       </c>
       <c r="G62" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.51166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2685,22 +2951,29 @@
         <v>100</v>
       </c>
       <c r="G63" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.51</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,22 +2997,29 @@
         <v>2000</v>
       </c>
       <c r="G64" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.50833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2763,22 +3043,29 @@
         <v>100</v>
       </c>
       <c r="G65" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.50833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L65" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2802,22 +3089,29 @@
         <v>282472.2016</v>
       </c>
       <c r="G66" t="n">
+        <v>12.53999999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.50833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2841,22 +3135,27 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
+        <v>12.53999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.50833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,22 +3179,27 @@
         <v>220000</v>
       </c>
       <c r="G68" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.51</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2919,22 +3223,27 @@
         <v>3710</v>
       </c>
       <c r="G69" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.51166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2958,22 +3267,27 @@
         <v>4066.3587</v>
       </c>
       <c r="G70" t="n">
+        <v>12.53999999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.51166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2997,22 +3311,27 @@
         <v>51</v>
       </c>
       <c r="G71" t="n">
+        <v>12.53999999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.51333333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,22 +3355,27 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
+        <v>12.53333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.51333333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3075,22 +3399,27 @@
         <v>23201.6694</v>
       </c>
       <c r="G73" t="n">
+        <v>12.53999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.51666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,22 +3443,27 @@
         <v>38077.7808</v>
       </c>
       <c r="G74" t="n">
+        <v>12.53999999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.51833333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,22 +3487,27 @@
         <v>15271.5814</v>
       </c>
       <c r="G75" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.52</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,22 +3531,27 @@
         <v>370297.4845</v>
       </c>
       <c r="G76" t="n">
+        <v>12.55333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.52166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,22 +3575,27 @@
         <v>291823.0708</v>
       </c>
       <c r="G77" t="n">
+        <v>12.56666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.52500000000001</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,22 +3619,27 @@
         <v>255399.7244</v>
       </c>
       <c r="G78" t="n">
+        <v>12.57999999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.52833333333334</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3309,22 +3663,27 @@
         <v>153456.8973</v>
       </c>
       <c r="G79" t="n">
+        <v>12.59999999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.53333333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,22 +3707,27 @@
         <v>253845.703</v>
       </c>
       <c r="G80" t="n">
+        <v>12.61999999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.53833333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,22 +3751,27 @@
         <v>216898.259</v>
       </c>
       <c r="G81" t="n">
+        <v>12.64666666666666</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.54500000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,22 +3795,27 @@
         <v>264332.8582</v>
       </c>
       <c r="G82" t="n">
+        <v>12.67999999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.55500000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,22 +3839,29 @@
         <v>23090</v>
       </c>
       <c r="G83" t="n">
+        <v>12.70666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.56333333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3502,18 +3883,27 @@
         <v>70257.62480000001</v>
       </c>
       <c r="G84" t="n">
+        <v>12.73999999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.57333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3537,18 +3927,27 @@
         <v>89315.57399999999</v>
       </c>
       <c r="G85" t="n">
+        <v>12.76666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.58166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,18 +3971,27 @@
         <v>63702.71934496124</v>
       </c>
       <c r="G86" t="n">
+        <v>12.78666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.58833333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,18 +4015,27 @@
         <v>15.8062</v>
       </c>
       <c r="G87" t="n">
+        <v>12.81333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.595</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3642,18 +4059,27 @@
         <v>40908.92925503876</v>
       </c>
       <c r="G88" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.60333333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3677,18 +4103,27 @@
         <v>39728.0769</v>
       </c>
       <c r="G89" t="n">
+        <v>12.86666666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.61333333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,18 +4147,27 @@
         <v>421394.5374</v>
       </c>
       <c r="G90" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.62333333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3747,18 +4191,27 @@
         <v>12.5151</v>
       </c>
       <c r="G91" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.63666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,19 +4235,28 @@
         <v>22902.945</v>
       </c>
       <c r="G92" t="n">
+        <v>12.95333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.64500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
+      <c r="L92" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>1.035322580645161</v>
       </c>
     </row>
     <row r="93">
@@ -3817,18 +4279,21 @@
         <v>28.1439</v>
       </c>
       <c r="G93" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.65666666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3852,18 +4317,21 @@
         <v>7000</v>
       </c>
       <c r="G94" t="n">
+        <v>12.99333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.66666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3887,18 +4355,21 @@
         <v>21.3358</v>
       </c>
       <c r="G95" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.67833333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,18 +4393,21 @@
         <v>10500</v>
       </c>
       <c r="G96" t="n">
+        <v>13.01999999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.68833333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3957,18 +4431,21 @@
         <v>34265.5646</v>
       </c>
       <c r="G97" t="n">
+        <v>13.00666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.69666666666668</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3992,18 +4469,21 @@
         <v>2877.729478625954</v>
       </c>
       <c r="G98" t="n">
+        <v>13.00666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.70500000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4027,18 +4507,21 @@
         <v>1427</v>
       </c>
       <c r="G99" t="n">
+        <v>13</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.71333333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4062,18 +4545,21 @@
         <v>50005.1114</v>
       </c>
       <c r="G100" t="n">
+        <v>13</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.71833333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4097,18 +4583,21 @@
         <v>16.0769</v>
       </c>
       <c r="G101" t="n">
+        <v>13.00666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.72500000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,18 +4621,21 @@
         <v>16.0769</v>
       </c>
       <c r="G102" t="n">
+        <v>13.01333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.73166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4167,18 +4659,21 @@
         <v>25070.223</v>
       </c>
       <c r="G103" t="n">
+        <v>13</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.73500000000001</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,18 +4697,21 @@
         <v>75837.72229999999</v>
       </c>
       <c r="G104" t="n">
+        <v>12.98666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.73666666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4237,18 +4735,21 @@
         <v>142471.3514</v>
       </c>
       <c r="G105" t="n">
+        <v>12.96666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.74</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,18 +4773,21 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
+        <v>12.94666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.745</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4307,18 +4811,21 @@
         <v>39362.1092</v>
       </c>
       <c r="G107" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.75166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,18 +4849,21 @@
         <v>14168.503</v>
       </c>
       <c r="G108" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.75666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,18 +4887,21 @@
         <v>197997.5747</v>
       </c>
       <c r="G109" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.76</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,18 +4925,21 @@
         <v>50694.1865</v>
       </c>
       <c r="G110" t="n">
+        <v>12.87333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.76333333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4447,18 +4963,21 @@
         <v>269058</v>
       </c>
       <c r="G111" t="n">
+        <v>12.84666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.76333333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,22 +5001,21 @@
         <v>45848.2164</v>
       </c>
       <c r="G112" t="n">
+        <v>12.83333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.765</v>
       </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K112" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4521,24 +5039,21 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
+        <v>12.81333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.76833333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,26 +5077,21 @@
         <v>50000</v>
       </c>
       <c r="G114" t="n">
+        <v>12.78666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.76833333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K114" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4605,18 +5115,21 @@
         <v>264200.1673</v>
       </c>
       <c r="G115" t="n">
+        <v>12.77333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.77</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,18 +5153,21 @@
         <v>413478.1455</v>
       </c>
       <c r="G116" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.76833333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4675,18 +5191,21 @@
         <v>39421.0683</v>
       </c>
       <c r="G117" t="n">
+        <v>12.70666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.76666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,18 +5229,21 @@
         <v>37450.0149</v>
       </c>
       <c r="G118" t="n">
+        <v>12.68666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.76666666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4745,18 +5267,21 @@
         <v>119742.5977</v>
       </c>
       <c r="G119" t="n">
+        <v>12.66666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.765</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,18 +5305,21 @@
         <v>31515.999</v>
       </c>
       <c r="G120" t="n">
+        <v>12.64666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.765</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4815,18 +5343,21 @@
         <v>49204.8865</v>
       </c>
       <c r="G121" t="n">
+        <v>12.61999999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.765</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4850,18 +5381,401 @@
         <v>408.1549</v>
       </c>
       <c r="G122" t="n">
+        <v>12.59999999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.765</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10618.3247</v>
+      </c>
+      <c r="G123" t="n">
+        <v>12.57333333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>12.76333333333334</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>12.54666666666666</v>
+      </c>
+      <c r="H124" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>159904.8457</v>
+      </c>
+      <c r="G125" t="n">
+        <v>12.51999999999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>12.75666666666667</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7268.7487</v>
+      </c>
+      <c r="G126" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H126" t="n">
+        <v>12.755</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" t="n">
+        <v>12.48666666666666</v>
+      </c>
+      <c r="H127" t="n">
+        <v>12.75166666666667</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12.47333333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>26976.6971</v>
+      </c>
+      <c r="G129" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="H129" t="n">
+        <v>12.74833333333333</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>12.45333333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>12.74833333333333</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>13</v>
+      </c>
+      <c r="G131" t="n">
+        <v>12.45333333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>12.74666666666667</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12.8571</v>
+      </c>
+      <c r="G132" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H132" t="n">
+        <v>12.74833333333333</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-30 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M161"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -445,10 +450,10 @@
         <v>12.5</v>
       </c>
       <c r="F2" t="n">
-        <v>91919.7121</v>
+        <v>376.8681</v>
       </c>
       <c r="G2" t="n">
-        <v>1298184.516565079</v>
+        <v>12.49</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -480,23 +486,28 @@
         <v>12.5</v>
       </c>
       <c r="F3" t="n">
-        <v>2856.5136</v>
+        <v>338.8798</v>
       </c>
       <c r="G3" t="n">
-        <v>1298184.516565079</v>
+        <v>12.49</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.5</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -515,10 +526,10 @@
         <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>326.4605</v>
+        <v>304.7207</v>
       </c>
       <c r="G4" t="n">
-        <v>1298184.516565079</v>
+        <v>12.495</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -527,11 +538,18 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,45 +568,54 @@
         <v>12.5</v>
       </c>
       <c r="F5" t="n">
-        <v>7640</v>
+        <v>520.3899</v>
       </c>
       <c r="G5" t="n">
-        <v>1298184.516565079</v>
+        <v>12.495</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F6" t="n">
-        <v>236093.1139</v>
+        <v>221.5495</v>
       </c>
       <c r="G6" t="n">
-        <v>1062091.402665079</v>
+        <v>12.495</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,10 +648,10 @@
         <v>12.5</v>
       </c>
       <c r="F7" t="n">
-        <v>680.6929</v>
+        <v>199.2173</v>
       </c>
       <c r="G7" t="n">
-        <v>1062772.095565079</v>
+        <v>12.495</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +665,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E8" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F8" t="n">
-        <v>35218.8782</v>
+        <v>179.1362</v>
       </c>
       <c r="G8" t="n">
-        <v>1027553.217365079</v>
+        <v>12.495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +701,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C9" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D9" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E9" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F9" t="n">
-        <v>9374.6731</v>
+        <v>744.2989</v>
       </c>
       <c r="G9" t="n">
-        <v>1027553.217365079</v>
+        <v>12.495</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +737,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -725,10 +756,10 @@
         <v>12.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1869.8932</v>
+        <v>316.8759</v>
       </c>
       <c r="G10" t="n">
-        <v>1029423.110565079</v>
+        <v>12.49000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +773,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -760,268 +792,336 @@
         <v>12.5</v>
       </c>
       <c r="F11" t="n">
-        <v>7784.56</v>
+        <v>284.9348</v>
       </c>
       <c r="G11" t="n">
-        <v>1029423.110565079</v>
+        <v>12.49</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12.5</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C12" t="n">
         <v>12.4</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E12" t="n">
         <v>12.4</v>
       </c>
       <c r="F12" t="n">
-        <v>12438.1283</v>
+        <v>313.2134</v>
       </c>
       <c r="G12" t="n">
-        <v>1016984.982265079</v>
+        <v>12.49</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C13" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E13" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>437.5512</v>
       </c>
       <c r="G13" t="n">
-        <v>1016984.982265079</v>
+        <v>12.49</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C14" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D14" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E14" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F14" t="n">
-        <v>254952.8224</v>
+        <v>186.282</v>
       </c>
       <c r="G14" t="n">
-        <v>1016984.982265079</v>
+        <v>12.485</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C15" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D15" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E15" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F15" t="n">
-        <v>45067.613</v>
+        <v>167.5047</v>
       </c>
       <c r="G15" t="n">
-        <v>1016984.982265079</v>
+        <v>12.485</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C16" t="n">
         <v>12.4</v>
       </c>
       <c r="D16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E16" t="n">
         <v>12.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0001</v>
+        <v>153406.9869</v>
       </c>
       <c r="G16" t="n">
-        <v>1016984.982265079</v>
+        <v>12.485</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F17" t="n">
-        <v>37563.9782</v>
+        <v>61</v>
       </c>
       <c r="G17" t="n">
-        <v>1054548.960465079</v>
+        <v>12.49</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E18" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F18" t="n">
-        <v>77911</v>
+        <v>69686.4149</v>
       </c>
       <c r="G18" t="n">
-        <v>976637.9604650792</v>
+        <v>12.485</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1040,23 +1140,32 @@
         <v>12.4</v>
       </c>
       <c r="F19" t="n">
-        <v>89093.717</v>
+        <v>44963.598</v>
       </c>
       <c r="G19" t="n">
-        <v>887544.2434650792</v>
+        <v>12.485</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1066,32 +1175,41 @@
         <v>12.4</v>
       </c>
       <c r="C20" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D20" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E20" t="n">
         <v>12.4</v>
       </c>
       <c r="F20" t="n">
-        <v>162266.4973</v>
+        <v>3011.0325</v>
       </c>
       <c r="G20" t="n">
-        <v>1049810.740765079</v>
+        <v>12.485</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1101,144 +1219,180 @@
         <v>12.4</v>
       </c>
       <c r="C21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D21" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E21" t="n">
         <v>12.4</v>
       </c>
       <c r="F21" t="n">
-        <v>73813.4492</v>
+        <v>45720.4809</v>
       </c>
       <c r="G21" t="n">
-        <v>1049810.740765079</v>
+        <v>12.48</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E22" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F22" t="n">
-        <v>13240</v>
+        <v>33434.4569</v>
       </c>
       <c r="G22" t="n">
-        <v>1049810.740765079</v>
+        <v>12.475</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C23" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D23" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E23" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F23" t="n">
-        <v>6620</v>
+        <v>11961.0624</v>
       </c>
       <c r="G23" t="n">
-        <v>1049810.740765079</v>
+        <v>12.47</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C24" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D24" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E24" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F24" t="n">
-        <v>6530</v>
+        <v>70143.99980000001</v>
       </c>
       <c r="G24" t="n">
-        <v>1049810.740765079</v>
+        <v>12.465</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C25" t="n">
         <v>12.5</v>
@@ -1247,83 +1401,101 @@
         <v>12.5</v>
       </c>
       <c r="E25" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F25" t="n">
-        <v>51000</v>
+        <v>263159.3201</v>
       </c>
       <c r="G25" t="n">
-        <v>1049810.740765079</v>
+        <v>12.46</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C26" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D26" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E26" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1503.8721</v>
+        <v>168667.6749</v>
       </c>
       <c r="G26" t="n">
-        <v>1048306.868665079</v>
+        <v>12.46</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C27" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D27" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E27" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F27" t="n">
-        <v>203</v>
+        <v>69250.34</v>
       </c>
       <c r="G27" t="n">
-        <v>1048306.868665079</v>
+        <v>12.465</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1332,33 +1504,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C28" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D28" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E28" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>10425</v>
       </c>
       <c r="G28" t="n">
-        <v>1048316.868665079</v>
+        <v>12.47</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,33 +1546,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C29" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D29" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E29" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F29" t="n">
-        <v>316840.6081</v>
+        <v>160091.309</v>
       </c>
       <c r="G29" t="n">
-        <v>1048316.868665079</v>
+        <v>12.475</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,33 +1588,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C30" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D30" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E30" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F30" t="n">
-        <v>1605.8721</v>
+        <v>178526.0396</v>
       </c>
       <c r="G30" t="n">
-        <v>1048316.868665079</v>
+        <v>12.48</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,46 +1630,62 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C31" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D31" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E31" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F31" t="n">
-        <v>23420</v>
+        <v>912</v>
       </c>
       <c r="G31" t="n">
-        <v>1048316.868665079</v>
+        <v>12.485</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1495,10 +1704,10 @@
         <v>12.6</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>69544.63559999999</v>
       </c>
       <c r="G32" t="n">
-        <v>1048326.868665079</v>
+        <v>12.49</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,18 +1716,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C33" t="n">
         <v>12.6</v>
@@ -1527,61 +1743,79 @@
         <v>12.6</v>
       </c>
       <c r="E33" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F33" t="n">
-        <v>150011</v>
+        <v>139272.5113</v>
       </c>
       <c r="G33" t="n">
-        <v>1048326.868665079</v>
+        <v>12.495</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C34" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D34" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E34" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F34" t="n">
-        <v>12375.1612</v>
+        <v>2112.9266</v>
       </c>
       <c r="G34" t="n">
-        <v>1035951.707465079</v>
+        <v>12.49</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1600,58 +1834,76 @@
         <v>12.5</v>
       </c>
       <c r="F35" t="n">
-        <v>10768.9135</v>
+        <v>6699</v>
       </c>
       <c r="G35" t="n">
-        <v>1035951.707465079</v>
+        <v>12.49</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C36" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D36" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E36" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F36" t="n">
-        <v>66.9841</v>
+        <v>2112.9266</v>
       </c>
       <c r="G36" t="n">
-        <v>1036018.691565079</v>
+        <v>12.49</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1670,80 +1922,98 @@
         <v>12.5</v>
       </c>
       <c r="F37" t="n">
-        <v>29231.0865</v>
+        <v>38584.5907</v>
       </c>
       <c r="G37" t="n">
-        <v>1006787.605065079</v>
+        <v>12.49</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C38" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D38" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E38" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>1006787.605065079</v>
+        <v>12.5</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C39" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D39" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E39" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F39" t="n">
-        <v>31</v>
+        <v>161279.4046</v>
       </c>
       <c r="G39" t="n">
-        <v>1006787.605065079</v>
+        <v>12.51</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,11 +2022,18 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1775,10 +2052,10 @@
         <v>12.5</v>
       </c>
       <c r="F40" t="n">
-        <v>72.72</v>
+        <v>10398.9375</v>
       </c>
       <c r="G40" t="n">
-        <v>1006787.605065079</v>
+        <v>12.515</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +2064,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C41" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D41" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E41" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>3337.0973</v>
       </c>
       <c r="G41" t="n">
-        <v>1006787.605065079</v>
+        <v>12.525</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2106,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C42" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D42" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E42" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>4212.9027</v>
       </c>
       <c r="G42" t="n">
-        <v>1006777.605065079</v>
+        <v>12.535</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2148,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C43" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D43" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E43" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F43" t="n">
-        <v>902.2123</v>
+        <v>79365.0793</v>
       </c>
       <c r="G43" t="n">
-        <v>1007679.817365079</v>
+        <v>12.545</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2190,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C44" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D44" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E44" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F44" t="n">
-        <v>376.8681</v>
+        <v>79365.0793</v>
       </c>
       <c r="G44" t="n">
-        <v>1007679.817365079</v>
+        <v>12.555</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,11 +2232,18 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1950,10 +2262,10 @@
         <v>12.5</v>
       </c>
       <c r="F45" t="n">
-        <v>338.8798</v>
+        <v>7534.6558</v>
       </c>
       <c r="G45" t="n">
-        <v>1007679.817365079</v>
+        <v>12.56</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2274,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C46" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D46" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E46" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F46" t="n">
-        <v>304.7207</v>
+        <v>131042.9365</v>
       </c>
       <c r="G46" t="n">
-        <v>1007679.817365079</v>
+        <v>12.565</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2316,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C47" t="n">
         <v>12.5</v>
       </c>
       <c r="D47" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E47" t="n">
         <v>12.5</v>
       </c>
       <c r="F47" t="n">
-        <v>520.3899</v>
+        <v>3593.0595</v>
       </c>
       <c r="G47" t="n">
-        <v>1007679.817365079</v>
+        <v>12.565</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,11 +2358,18 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2055,10 +2388,10 @@
         <v>12.5</v>
       </c>
       <c r="F48" t="n">
-        <v>221.5495</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>1007679.817365079</v>
+        <v>12.56</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,11 +2400,18 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2090,10 +2430,10 @@
         <v>12.5</v>
       </c>
       <c r="F49" t="n">
-        <v>199.2173</v>
+        <v>23993.1009</v>
       </c>
       <c r="G49" t="n">
-        <v>1007679.817365079</v>
+        <v>12.555</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,11 +2442,18 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2125,10 +2472,10 @@
         <v>12.5</v>
       </c>
       <c r="F50" t="n">
-        <v>179.1362</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>1007679.817365079</v>
+        <v>12.55</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,11 +2484,18 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2160,10 +2514,10 @@
         <v>12.5</v>
       </c>
       <c r="F51" t="n">
-        <v>744.2989</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="n">
-        <v>1007679.817365079</v>
+        <v>12.545</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,11 +2526,18 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2195,23 +2556,32 @@
         <v>12.5</v>
       </c>
       <c r="F52" t="n">
-        <v>316.8759</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>1007679.817365079</v>
+        <v>12.54</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2230,115 +2600,142 @@
         <v>12.5</v>
       </c>
       <c r="F53" t="n">
-        <v>284.9348</v>
+        <v>282472.2016</v>
       </c>
       <c r="G53" t="n">
-        <v>1007679.817365079</v>
+        <v>12.535</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C54" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D54" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E54" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F54" t="n">
-        <v>313.2134</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>1007366.603965079</v>
+        <v>12.545</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C55" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D55" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E55" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F55" t="n">
-        <v>437.5512</v>
+        <v>220000</v>
       </c>
       <c r="G55" t="n">
-        <v>1007804.155165079</v>
+        <v>12.55</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K55" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C56" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D56" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E56" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F56" t="n">
-        <v>186.282</v>
+        <v>3710</v>
       </c>
       <c r="G56" t="n">
-        <v>1007804.155165079</v>
+        <v>12.555</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,11 +2744,18 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2370,10 +2774,10 @@
         <v>12.5</v>
       </c>
       <c r="F57" t="n">
-        <v>167.5047</v>
+        <v>4066.3587</v>
       </c>
       <c r="G57" t="n">
-        <v>1007804.155165079</v>
+        <v>12.555</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2786,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C58" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D58" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E58" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>153406.9869</v>
+        <v>51</v>
       </c>
       <c r="G58" t="n">
-        <v>854397.1682650791</v>
+        <v>12.555</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,11 +2828,18 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2440,10 +2858,10 @@
         <v>12.5</v>
       </c>
       <c r="F59" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>854458.1682650791</v>
+        <v>12.55</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2870,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C60" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D60" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E60" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F60" t="n">
-        <v>69686.4149</v>
+        <v>23201.6694</v>
       </c>
       <c r="G60" t="n">
-        <v>784771.7533650792</v>
+        <v>12.555</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2912,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C61" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D61" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E61" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F61" t="n">
-        <v>44963.598</v>
+        <v>38077.7808</v>
       </c>
       <c r="G61" t="n">
-        <v>784771.7533650792</v>
+        <v>12.555</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2954,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C62" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D62" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E62" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F62" t="n">
-        <v>3011.0325</v>
+        <v>15271.5814</v>
       </c>
       <c r="G62" t="n">
-        <v>784771.7533650792</v>
+        <v>12.555</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,33 +2996,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C63" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E63" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F63" t="n">
-        <v>45720.4809</v>
+        <v>370297.4845</v>
       </c>
       <c r="G63" t="n">
-        <v>784771.7533650792</v>
+        <v>12.555</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +3038,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C64" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="D64" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E64" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="F64" t="n">
-        <v>33434.4569</v>
+        <v>291823.0708</v>
       </c>
       <c r="G64" t="n">
-        <v>784771.7533650792</v>
+        <v>12.56</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +3080,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C65" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="D65" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E65" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="F65" t="n">
-        <v>11961.0624</v>
+        <v>255399.7244</v>
       </c>
       <c r="G65" t="n">
-        <v>784771.7533650792</v>
+        <v>12.57</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +3122,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="C66" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="D66" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="E66" t="n">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="F66" t="n">
-        <v>70143.99980000001</v>
+        <v>153456.8973</v>
       </c>
       <c r="G66" t="n">
-        <v>784771.7533650792</v>
+        <v>12.575</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +3164,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="C67" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D67" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E67" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="F67" t="n">
-        <v>263159.3201</v>
+        <v>253845.703</v>
       </c>
       <c r="G67" t="n">
-        <v>1047931.073465079</v>
+        <v>12.585</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +3206,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C68" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="D68" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="E68" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F68" t="n">
-        <v>168667.6749</v>
+        <v>216898.259</v>
       </c>
       <c r="G68" t="n">
-        <v>1047931.073465079</v>
+        <v>12.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +3248,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C69" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="D69" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E69" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F69" t="n">
-        <v>69250.34</v>
+        <v>264332.8582</v>
       </c>
       <c r="G69" t="n">
-        <v>1117181.413465079</v>
+        <v>12.625</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3290,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C70" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D70" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E70" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F70" t="n">
-        <v>10425</v>
+        <v>23090</v>
       </c>
       <c r="G70" t="n">
-        <v>1117181.413465079</v>
+        <v>12.65</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3332,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C71" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="D71" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E71" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F71" t="n">
-        <v>160091.309</v>
+        <v>70257.62480000001</v>
       </c>
       <c r="G71" t="n">
-        <v>1117181.413465079</v>
+        <v>12.675</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3374,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C72" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D72" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F72" t="n">
-        <v>178526.0396</v>
+        <v>89315.57399999999</v>
       </c>
       <c r="G72" t="n">
-        <v>1117181.413465079</v>
+        <v>12.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3416,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C73" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D73" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E73" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F73" t="n">
-        <v>912</v>
+        <v>63702.71934496124</v>
       </c>
       <c r="G73" t="n">
-        <v>1118093.413465079</v>
+        <v>12.715</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3458,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C74" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D74" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E74" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F74" t="n">
-        <v>69544.63559999999</v>
+        <v>15.8062</v>
       </c>
       <c r="G74" t="n">
-        <v>1048548.777865079</v>
+        <v>12.73</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3500,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C75" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D75" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E75" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F75" t="n">
-        <v>139272.5113</v>
+        <v>40908.92925503876</v>
       </c>
       <c r="G75" t="n">
-        <v>1048548.777865079</v>
+        <v>12.745</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3542,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="C76" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="D76" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="E76" t="n">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="F76" t="n">
-        <v>2112.9266</v>
+        <v>39728.0769</v>
       </c>
       <c r="G76" t="n">
-        <v>1046435.851265079</v>
+        <v>12.765</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3584,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="D77" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="E77" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="F77" t="n">
-        <v>6699</v>
+        <v>421394.5374</v>
       </c>
       <c r="G77" t="n">
-        <v>1053134.851265079</v>
+        <v>12.79</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3626,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="C78" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="D78" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="E78" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="F78" t="n">
-        <v>2112.9266</v>
+        <v>12.5151</v>
       </c>
       <c r="G78" t="n">
-        <v>1053134.851265079</v>
+        <v>12.82</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,33 +3668,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="D79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="E79" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="F79" t="n">
-        <v>38584.5907</v>
+        <v>22902.945</v>
       </c>
       <c r="G79" t="n">
-        <v>1053134.851265079</v>
+        <v>12.845</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3710,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C80" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="D80" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E80" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>28.1439</v>
       </c>
       <c r="G80" t="n">
-        <v>1053144.851265079</v>
+        <v>12.87</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3752,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D81" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>161279.4046</v>
+        <v>7000</v>
       </c>
       <c r="G81" t="n">
-        <v>1053144.851265079</v>
+        <v>12.89</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3794,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="C82" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="D82" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="E82" t="n">
-        <v>12.5</v>
+        <v>13.1</v>
       </c>
       <c r="F82" t="n">
-        <v>10398.9375</v>
+        <v>21.3358</v>
       </c>
       <c r="G82" t="n">
-        <v>1042745.913765079</v>
+        <v>12.915</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,74 +3836,88 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C83" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E83" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F83" t="n">
-        <v>3337.0973</v>
+        <v>10500</v>
       </c>
       <c r="G83" t="n">
-        <v>1046083.011065079</v>
+        <v>12.935</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M83" t="n">
-        <v>1</v>
-      </c>
+        <v>1.035</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="C84" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="D84" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="E84" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="F84" t="n">
-        <v>4212.9027</v>
+        <v>34265.5646</v>
       </c>
       <c r="G84" t="n">
-        <v>1046083.011065079</v>
+        <v>12.945</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3332,34 +3925,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="C85" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D85" t="n">
-        <v>12.6</v>
+        <v>13.1</v>
       </c>
       <c r="E85" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F85" t="n">
-        <v>79365.0793</v>
+        <v>2877.729478625954</v>
       </c>
       <c r="G85" t="n">
-        <v>1046083.011065079</v>
+        <v>12.965</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,34 +3961,35 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C86" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D86" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E86" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F86" t="n">
-        <v>79365.0793</v>
+        <v>1427</v>
       </c>
       <c r="G86" t="n">
-        <v>1046083.011065079</v>
+        <v>12.98</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3402,34 +3997,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="C87" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="D87" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="E87" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="F87" t="n">
-        <v>7534.6558</v>
+        <v>50005.1114</v>
       </c>
       <c r="G87" t="n">
-        <v>1038548.355265079</v>
+        <v>12.985</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3437,409 +4033,353 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C88" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D88" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="F88" t="n">
-        <v>131042.9365</v>
+        <v>16.0769</v>
       </c>
       <c r="G88" t="n">
-        <v>1169591.291765079</v>
+        <v>12.995</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K88" t="n">
-        <v>12.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="C89" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="D89" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="E89" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>3593.0595</v>
+        <v>16.0769</v>
       </c>
       <c r="G89" t="n">
-        <v>1165998.232265079</v>
+        <v>12.995</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C90" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D90" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E90" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>25070.223</v>
       </c>
       <c r="G90" t="n">
-        <v>1165998.232265079</v>
+        <v>12.985</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C91" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D91" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E91" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F91" t="n">
-        <v>23993.1009</v>
+        <v>75837.72229999999</v>
       </c>
       <c r="G91" t="n">
-        <v>1165998.232265079</v>
+        <v>12.975</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C92" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D92" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E92" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>142471.3514</v>
       </c>
       <c r="G92" t="n">
-        <v>1165998.232265079</v>
+        <v>12.965</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="C93" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="D93" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="E93" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="F93" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>1165998.232265079</v>
+        <v>12.97</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K93" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="C94" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D94" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="E94" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>39362.1092</v>
       </c>
       <c r="G94" t="n">
-        <v>1165998.232265079</v>
+        <v>12.965</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="C95" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="D95" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="E95" t="n">
-        <v>12.5</v>
+        <v>12.8</v>
       </c>
       <c r="F95" t="n">
-        <v>282472.2016</v>
+        <v>14168.503</v>
       </c>
       <c r="G95" t="n">
-        <v>1165998.232265079</v>
+        <v>12.965</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K95" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C96" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D96" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E96" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>197997.5747</v>
       </c>
       <c r="G96" t="n">
-        <v>1166008.232265079</v>
+        <v>12.95</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C97" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D97" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E97" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F97" t="n">
-        <v>220000</v>
+        <v>50694.1865</v>
       </c>
       <c r="G97" t="n">
-        <v>1166008.232265079</v>
+        <v>12.935</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3848,17 +4388,12 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3877,10 +4412,10 @@
         <v>12.6</v>
       </c>
       <c r="F98" t="n">
-        <v>3710</v>
+        <v>269058</v>
       </c>
       <c r="G98" t="n">
-        <v>1166008.232265079</v>
+        <v>12.905</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3889,39 +4424,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C99" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D99" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E99" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F99" t="n">
-        <v>4066.3587</v>
+        <v>45848.2164</v>
       </c>
       <c r="G99" t="n">
-        <v>1161941.873565079</v>
+        <v>12.89</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3930,39 +4460,34 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C100" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D100" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E100" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F100" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>1161992.873565079</v>
+        <v>12.87</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3971,39 +4496,34 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C101" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D101" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E101" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
       <c r="G101" t="n">
-        <v>1161982.873565079</v>
+        <v>12.85</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4012,17 +4532,12 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4032,19 +4547,19 @@
         <v>12.6</v>
       </c>
       <c r="C102" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E102" t="n">
         <v>12.6</v>
       </c>
       <c r="F102" t="n">
-        <v>23201.6694</v>
+        <v>264200.1673</v>
       </c>
       <c r="G102" t="n">
-        <v>1185184.542965079</v>
+        <v>12.825</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4053,17 +4568,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4073,19 +4583,19 @@
         <v>12.6</v>
       </c>
       <c r="C103" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D103" t="n">
         <v>12.6</v>
       </c>
       <c r="E103" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F103" t="n">
-        <v>38077.7808</v>
+        <v>413478.1455</v>
       </c>
       <c r="G103" t="n">
-        <v>1185184.542965079</v>
+        <v>12.805</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4094,39 +4604,34 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C104" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D104" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E104" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F104" t="n">
-        <v>15271.5814</v>
+        <v>39421.0683</v>
       </c>
       <c r="G104" t="n">
-        <v>1185184.542965079</v>
+        <v>12.785</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4135,39 +4640,34 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C105" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D105" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E105" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F105" t="n">
-        <v>370297.4845</v>
+        <v>37450.0149</v>
       </c>
       <c r="G105" t="n">
-        <v>1185184.542965079</v>
+        <v>12.755</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4176,39 +4676,34 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C106" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D106" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E106" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F106" t="n">
-        <v>291823.0708</v>
+        <v>119742.5977</v>
       </c>
       <c r="G106" t="n">
-        <v>1477007.613765079</v>
+        <v>12.73</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4217,39 +4712,34 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C107" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D107" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E107" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F107" t="n">
-        <v>255399.7244</v>
+        <v>31515.999</v>
       </c>
       <c r="G107" t="n">
-        <v>1477007.613765079</v>
+        <v>12.71</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4258,39 +4748,34 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C108" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D108" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E108" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F108" t="n">
-        <v>153456.8973</v>
+        <v>49204.8865</v>
       </c>
       <c r="G108" t="n">
-        <v>1630464.511065079</v>
+        <v>12.685</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4299,39 +4784,34 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C109" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D109" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E109" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F109" t="n">
-        <v>253845.703</v>
+        <v>408.1549</v>
       </c>
       <c r="G109" t="n">
-        <v>1630464.511065079</v>
+        <v>12.66</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4340,39 +4820,34 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C110" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D110" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="E110" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F110" t="n">
-        <v>216898.259</v>
+        <v>10618.3247</v>
       </c>
       <c r="G110" t="n">
-        <v>1847362.770065079</v>
+        <v>12.64</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4381,39 +4856,34 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C111" t="n">
-        <v>13.1</v>
+        <v>12.3</v>
       </c>
       <c r="D111" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="E111" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F111" t="n">
-        <v>264332.8582</v>
+        <v>50000</v>
       </c>
       <c r="G111" t="n">
-        <v>2111695.628265079</v>
+        <v>12.62</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4422,39 +4892,34 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="C112" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="D112" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="E112" t="n">
-        <v>13</v>
+        <v>12.3</v>
       </c>
       <c r="F112" t="n">
-        <v>23090</v>
+        <v>159904.8457</v>
       </c>
       <c r="G112" t="n">
-        <v>2088605.628265079</v>
+        <v>12.595</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4463,39 +4928,34 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C113" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="D113" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="E113" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F113" t="n">
-        <v>70257.62480000001</v>
+        <v>7268.7487</v>
       </c>
       <c r="G113" t="n">
-        <v>2158863.253065079</v>
+        <v>12.57</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4504,39 +4964,34 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C114" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D114" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E114" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F114" t="n">
-        <v>89315.57399999999</v>
+        <v>15</v>
       </c>
       <c r="G114" t="n">
-        <v>2069547.679065079</v>
+        <v>12.55</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4545,39 +5000,34 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C115" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D115" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E115" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F115" t="n">
-        <v>63702.71934496124</v>
+        <v>14.8</v>
       </c>
       <c r="G115" t="n">
-        <v>2069547.679065079</v>
+        <v>12.53</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4586,39 +5036,34 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="C116" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D116" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E116" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F116" t="n">
-        <v>15.8062</v>
+        <v>26976.6971</v>
       </c>
       <c r="G116" t="n">
-        <v>2069547.679065079</v>
+        <v>12.52</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4627,39 +5072,34 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="C117" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E117" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F117" t="n">
-        <v>40908.92925503876</v>
+        <v>20000</v>
       </c>
       <c r="G117" t="n">
-        <v>2110456.608320118</v>
+        <v>12.51</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4668,39 +5108,34 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F118" t="n">
         <v>13</v>
       </c>
-      <c r="C118" t="n">
-        <v>13</v>
-      </c>
-      <c r="D118" t="n">
-        <v>13</v>
-      </c>
-      <c r="E118" t="n">
-        <v>13</v>
-      </c>
-      <c r="F118" t="n">
-        <v>39728.0769</v>
-      </c>
       <c r="G118" t="n">
-        <v>2110456.608320118</v>
+        <v>12.505</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4709,39 +5144,34 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="C119" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="D119" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="E119" t="n">
-        <v>13</v>
+        <v>12.6</v>
       </c>
       <c r="F119" t="n">
-        <v>421394.5374</v>
+        <v>12.8571</v>
       </c>
       <c r="G119" t="n">
-        <v>2531851.145720118</v>
+        <v>12.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4750,1583 +5180,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C120" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D120" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E120" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F120" t="n">
-        <v>12.5151</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2531863.660820118</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>13</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D121" t="n">
-        <v>13</v>
-      </c>
-      <c r="E121" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F121" t="n">
-        <v>22902.945</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2508960.715820118</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C122" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D122" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E122" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F122" t="n">
-        <v>28.1439</v>
-      </c>
-      <c r="G122" t="n">
-        <v>2508988.859720118</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>13</v>
-      </c>
-      <c r="C123" t="n">
-        <v>13</v>
-      </c>
-      <c r="D123" t="n">
-        <v>13</v>
-      </c>
-      <c r="E123" t="n">
-        <v>13</v>
-      </c>
-      <c r="F123" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>2501988.859720118</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C124" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E124" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>21.3358</v>
-      </c>
-      <c r="G124" t="n">
-        <v>2502010.195520118</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>13</v>
-      </c>
-      <c r="C125" t="n">
-        <v>13</v>
-      </c>
-      <c r="D125" t="n">
-        <v>13</v>
-      </c>
-      <c r="E125" t="n">
-        <v>13</v>
-      </c>
-      <c r="F125" t="n">
-        <v>10500</v>
-      </c>
-      <c r="G125" t="n">
-        <v>2491510.195520118</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C126" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D126" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F126" t="n">
-        <v>34265.5646</v>
-      </c>
-      <c r="G126" t="n">
-        <v>2457244.630920118</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>13</v>
-      </c>
-      <c r="D127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E127" t="n">
-        <v>13</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2877.729478625954</v>
-      </c>
-      <c r="G127" t="n">
-        <v>2460122.360398744</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>13</v>
-      </c>
-      <c r="C128" t="n">
-        <v>13</v>
-      </c>
-      <c r="D128" t="n">
-        <v>13</v>
-      </c>
-      <c r="E128" t="n">
-        <v>13</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1427</v>
-      </c>
-      <c r="G128" t="n">
-        <v>2460122.360398744</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>50005.1114</v>
-      </c>
-      <c r="G129" t="n">
-        <v>2410117.248998744</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>13</v>
-      </c>
-      <c r="C130" t="n">
-        <v>13</v>
-      </c>
-      <c r="D130" t="n">
-        <v>13</v>
-      </c>
-      <c r="E130" t="n">
-        <v>13</v>
-      </c>
-      <c r="F130" t="n">
-        <v>16.0769</v>
-      </c>
-      <c r="G130" t="n">
-        <v>2410133.325898744</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>13</v>
-      </c>
-      <c r="C131" t="n">
-        <v>13</v>
-      </c>
-      <c r="D131" t="n">
-        <v>13</v>
-      </c>
-      <c r="E131" t="n">
-        <v>13</v>
-      </c>
-      <c r="F131" t="n">
-        <v>16.0769</v>
-      </c>
-      <c r="G131" t="n">
-        <v>2410133.325898744</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F132" t="n">
-        <v>25070.223</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2385063.102898744</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1.019</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>75837.72229999999</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2385063.102898744</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>142471.3514</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2385063.102898744</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C135" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="D135" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="F135" t="n">
-        <v>10</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2385073.102898744</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F136" t="n">
-        <v>39362.1092</v>
-      </c>
-      <c r="G136" t="n">
-        <v>2345710.993698744</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F137" t="n">
-        <v>14168.503</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2345710.993698744</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>197997.5747</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2147713.418998744</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F139" t="n">
-        <v>50694.1865</v>
-      </c>
-      <c r="G139" t="n">
-        <v>2147713.418998744</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C140" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D140" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>269058</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1878655.418998744</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D141" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>45848.2164</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1924503.635398744</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="C142" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D142" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="F142" t="n">
-        <v>10</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1924503.635398744</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C143" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D143" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F143" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1874503.635398744</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C144" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F144" t="n">
-        <v>264200.1673</v>
-      </c>
-      <c r="G144" t="n">
-        <v>2138703.802698744</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C145" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D145" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E145" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F145" t="n">
-        <v>413478.1455</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1725225.657198744</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F146" t="n">
-        <v>39421.0683</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1725225.657198744</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>37450.0149</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1725225.657198744</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>119742.5977</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1725225.657198744</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C149" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D149" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F149" t="n">
-        <v>31515.999</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1725225.657198744</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C150" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D150" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F150" t="n">
-        <v>49204.8865</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1725225.657198744</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K150" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C151" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D151" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E151" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F151" t="n">
-        <v>408.1549</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1725225.657198744</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K151" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F152" t="n">
-        <v>10618.3247</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1714607.332498744</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C153" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D153" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F153" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1664607.332498744</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C154" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D154" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E154" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F154" t="n">
-        <v>159904.8457</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1664607.332498744</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C155" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D155" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E155" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F155" t="n">
-        <v>7268.7487</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1671876.081198744</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C156" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D156" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E156" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F156" t="n">
-        <v>15</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1671876.081198744</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C157" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D157" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F157" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1671890.881198745</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C158" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D158" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E158" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F158" t="n">
-        <v>26976.6971</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1671890.881198745</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C159" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D159" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E159" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F159" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1671890.881198745</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C160" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D160" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F160" t="n">
-        <v>13</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1671890.881198745</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C161" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="D161" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E161" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F161" t="n">
-        <v>12.8571</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1671903.738298744</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
+      <c r="N119" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-30 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C2" t="n">
         <v>12.5</v>
@@ -447,16 +447,16 @@
         <v>12.5</v>
       </c>
       <c r="E2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F2" t="n">
-        <v>376.8681</v>
+        <v>49666.345</v>
       </c>
       <c r="G2" t="n">
-        <v>12.49</v>
+        <v>1219233.602165079</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>12.5</v>
       </c>
       <c r="F3" t="n">
-        <v>338.8798</v>
+        <v>33249.2725</v>
       </c>
       <c r="G3" t="n">
-        <v>12.49</v>
+        <v>1219233.602165079</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -517,19 +517,19 @@
         <v>12.5</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D4" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E4" t="n">
         <v>12.5</v>
       </c>
       <c r="F4" t="n">
-        <v>304.7207</v>
+        <v>246982.1704</v>
       </c>
       <c r="G4" t="n">
-        <v>12.495</v>
+        <v>1466215.772565079</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -543,7 +543,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -556,38 +556,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E5" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F5" t="n">
-        <v>520.3899</v>
+        <v>111296.9621</v>
       </c>
       <c r="G5" t="n">
-        <v>12.495</v>
+        <v>1466215.772565079</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>12.5</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -600,22 +598,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E6" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F6" t="n">
-        <v>221.5495</v>
+        <v>39499.69</v>
       </c>
       <c r="G6" t="n">
-        <v>12.495</v>
+        <v>1466215.772565079</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -624,8 +622,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -645,13 +649,13 @@
         <v>12.5</v>
       </c>
       <c r="E7" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F7" t="n">
-        <v>199.2173</v>
+        <v>270449.9052</v>
       </c>
       <c r="G7" t="n">
-        <v>12.495</v>
+        <v>1195765.867365079</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -660,8 +664,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -684,10 +694,10 @@
         <v>12.5</v>
       </c>
       <c r="F8" t="n">
-        <v>179.1362</v>
+        <v>2489.0004</v>
       </c>
       <c r="G8" t="n">
-        <v>12.495</v>
+        <v>1195765.867365079</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -696,8 +706,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -720,10 +736,10 @@
         <v>12.5</v>
       </c>
       <c r="F9" t="n">
-        <v>744.2989</v>
+        <v>12010.9995</v>
       </c>
       <c r="G9" t="n">
-        <v>12.495</v>
+        <v>1195765.867365079</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -732,8 +748,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -756,10 +778,10 @@
         <v>12.5</v>
       </c>
       <c r="F10" t="n">
-        <v>316.8759</v>
+        <v>0.0001</v>
       </c>
       <c r="G10" t="n">
-        <v>12.49000000000001</v>
+        <v>1195765.867365079</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -768,8 +790,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -792,24 +820,26 @@
         <v>12.5</v>
       </c>
       <c r="F11" t="n">
-        <v>284.9348</v>
+        <v>32000</v>
       </c>
       <c r="G11" t="n">
-        <v>12.49</v>
+        <v>1195765.867365079</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>12.5</v>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -832,26 +862,24 @@
         <v>12.4</v>
       </c>
       <c r="F12" t="n">
-        <v>313.2134</v>
+        <v>24308.0206</v>
       </c>
       <c r="G12" t="n">
-        <v>12.49</v>
+        <v>1171457.846765079</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>12.5</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -864,32 +892,30 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C13" t="n">
         <v>12.5</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E13" t="n">
         <v>12.5</v>
       </c>
       <c r="F13" t="n">
-        <v>437.5512</v>
+        <v>101750.5126</v>
       </c>
       <c r="G13" t="n">
-        <v>12.49</v>
+        <v>1273208.359365079</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>12.5</v>
       </c>
@@ -908,32 +934,30 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C14" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D14" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E14" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F14" t="n">
-        <v>186.282</v>
+        <v>6211.5373</v>
       </c>
       <c r="G14" t="n">
-        <v>12.485</v>
+        <v>1279419.896665079</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>12.5</v>
       </c>
@@ -952,32 +976,30 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C15" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D15" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E15" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F15" t="n">
-        <v>167.5047</v>
+        <v>15026.2955</v>
       </c>
       <c r="G15" t="n">
-        <v>12.485</v>
+        <v>1279419.896665079</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>12.5</v>
       </c>
@@ -996,32 +1018,30 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C16" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D16" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E16" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F16" t="n">
-        <v>153406.9869</v>
+        <v>23809.5238</v>
       </c>
       <c r="G16" t="n">
-        <v>12.485</v>
+        <v>1279419.896665079</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>12.5</v>
       </c>
@@ -1040,32 +1060,30 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E17" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F17" t="n">
-        <v>61</v>
+        <v>340.2753</v>
       </c>
       <c r="G17" t="n">
-        <v>12.49</v>
+        <v>1279419.896665079</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>12.5</v>
       </c>
@@ -1084,32 +1102,30 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C18" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D18" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E18" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F18" t="n">
-        <v>69686.4149</v>
+        <v>352.0848</v>
       </c>
       <c r="G18" t="n">
-        <v>12.485</v>
+        <v>1279419.896665079</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>12.5</v>
       </c>
@@ -1128,32 +1144,30 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C19" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D19" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F19" t="n">
-        <v>44963.598</v>
+        <v>2202.1576</v>
       </c>
       <c r="G19" t="n">
-        <v>12.485</v>
+        <v>1279419.896665079</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>12.5</v>
       </c>
@@ -1172,32 +1186,30 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F20" t="n">
-        <v>3011.0325</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>12.485</v>
+        <v>1279407.896665079</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>12.5</v>
       </c>
@@ -1216,32 +1228,30 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C21" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E21" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F21" t="n">
-        <v>45720.4809</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>12.48</v>
+        <v>1279417.896665079</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>12.5</v>
       </c>
@@ -1260,32 +1270,30 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C22" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D22" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F22" t="n">
-        <v>33434.4569</v>
+        <v>9204.392599999999</v>
       </c>
       <c r="G22" t="n">
-        <v>12.475</v>
+        <v>1279417.896665079</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>12.5</v>
       </c>
@@ -1304,32 +1312,30 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C23" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D23" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E23" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F23" t="n">
-        <v>11961.0624</v>
+        <v>26755.6075</v>
       </c>
       <c r="G23" t="n">
-        <v>12.47</v>
+        <v>1252662.289165079</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>12.5</v>
       </c>
@@ -1348,32 +1354,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C24" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D24" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E24" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F24" t="n">
-        <v>70143.99980000001</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>12.465</v>
+        <v>1252672.289165079</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>12.5</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C25" t="n">
         <v>12.5</v>
@@ -1401,23 +1405,21 @@
         <v>12.5</v>
       </c>
       <c r="E25" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F25" t="n">
-        <v>263159.3201</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="n">
-        <v>12.46</v>
+        <v>1242672.289165079</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>12.5</v>
       </c>
@@ -1448,20 +1450,18 @@
         <v>12.5</v>
       </c>
       <c r="F26" t="n">
-        <v>168667.6749</v>
+        <v>72.66330000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>12.46</v>
+        <v>1242672.289165079</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>12.5</v>
       </c>
@@ -1492,10 +1492,10 @@
         <v>12.6</v>
       </c>
       <c r="F27" t="n">
-        <v>69250.34</v>
+        <v>73172.2274</v>
       </c>
       <c r="G27" t="n">
-        <v>12.465</v>
+        <v>1315844.516565079</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>12.6</v>
       </c>
       <c r="F28" t="n">
-        <v>10425</v>
+        <v>61548.963</v>
       </c>
       <c r="G28" t="n">
-        <v>12.47</v>
+        <v>1315844.516565079</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>12.6</v>
       </c>
       <c r="F29" t="n">
-        <v>160091.309</v>
+        <v>25010</v>
       </c>
       <c r="G29" t="n">
-        <v>12.475</v>
+        <v>1315844.516565079</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C30" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D30" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E30" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F30" t="n">
-        <v>178526.0396</v>
+        <v>17660</v>
       </c>
       <c r="G30" t="n">
-        <v>12.48</v>
+        <v>1298184.516565079</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1648,32 +1648,30 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C31" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D31" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E31" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F31" t="n">
-        <v>912</v>
+        <v>91919.7121</v>
       </c>
       <c r="G31" t="n">
-        <v>12.485</v>
+        <v>1298184.516565079</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>12.5</v>
       </c>
@@ -1692,22 +1690,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C32" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D32" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E32" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F32" t="n">
-        <v>69544.63559999999</v>
+        <v>2856.5136</v>
       </c>
       <c r="G32" t="n">
-        <v>12.49</v>
+        <v>1298184.516565079</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1734,32 +1732,30 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C33" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D33" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E33" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F33" t="n">
-        <v>139272.5113</v>
+        <v>326.4605</v>
       </c>
       <c r="G33" t="n">
-        <v>12.495</v>
+        <v>1298184.516565079</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>12.5</v>
       </c>
@@ -1778,32 +1774,30 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C34" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D34" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E34" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F34" t="n">
-        <v>2112.9266</v>
+        <v>7640</v>
       </c>
       <c r="G34" t="n">
-        <v>12.49</v>
+        <v>1298184.516565079</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>12.5</v>
       </c>
@@ -1822,32 +1816,30 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C35" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D35" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E35" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F35" t="n">
-        <v>6699</v>
+        <v>236093.1139</v>
       </c>
       <c r="G35" t="n">
-        <v>12.49</v>
+        <v>1062091.402665079</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>12.5</v>
       </c>
@@ -1878,20 +1870,18 @@
         <v>12.5</v>
       </c>
       <c r="F36" t="n">
-        <v>2112.9266</v>
+        <v>680.6929</v>
       </c>
       <c r="G36" t="n">
-        <v>12.49</v>
+        <v>1062772.095565079</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>12.5</v>
       </c>
@@ -1910,32 +1900,30 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C37" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D37" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E37" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F37" t="n">
-        <v>38584.5907</v>
+        <v>35218.8782</v>
       </c>
       <c r="G37" t="n">
-        <v>12.49</v>
+        <v>1027553.217365079</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>12.5</v>
       </c>
@@ -1954,32 +1942,30 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C38" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D38" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E38" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>9374.6731</v>
       </c>
       <c r="G38" t="n">
-        <v>12.5</v>
+        <v>1027553.217365079</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>12.5</v>
       </c>
@@ -1998,22 +1984,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C39" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D39" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E39" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F39" t="n">
-        <v>161279.4046</v>
+        <v>1869.8932</v>
       </c>
       <c r="G39" t="n">
-        <v>12.51</v>
+        <v>1029423.110565079</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2052,10 +2038,10 @@
         <v>12.5</v>
       </c>
       <c r="F40" t="n">
-        <v>10398.9375</v>
+        <v>7784.56</v>
       </c>
       <c r="G40" t="n">
-        <v>12.515</v>
+        <v>1029423.110565079</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2082,22 +2068,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C41" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D41" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E41" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F41" t="n">
-        <v>3337.0973</v>
+        <v>12438.1283</v>
       </c>
       <c r="G41" t="n">
-        <v>12.525</v>
+        <v>1016984.982265079</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2124,22 +2110,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C42" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D42" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E42" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F42" t="n">
-        <v>4212.9027</v>
+        <v>20000</v>
       </c>
       <c r="G42" t="n">
-        <v>12.535</v>
+        <v>1016984.982265079</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2166,22 +2152,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C43" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D43" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E43" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F43" t="n">
-        <v>79365.0793</v>
+        <v>254952.8224</v>
       </c>
       <c r="G43" t="n">
-        <v>12.545</v>
+        <v>1016984.982265079</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2208,22 +2194,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C44" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D44" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E44" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F44" t="n">
-        <v>79365.0793</v>
+        <v>45067.613</v>
       </c>
       <c r="G44" t="n">
-        <v>12.555</v>
+        <v>1016984.982265079</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2250,22 +2236,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C45" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D45" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E45" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F45" t="n">
-        <v>7534.6558</v>
+        <v>0.0001</v>
       </c>
       <c r="G45" t="n">
-        <v>12.56</v>
+        <v>1016984.982265079</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2304,18 +2290,20 @@
         <v>12.6</v>
       </c>
       <c r="F46" t="n">
-        <v>131042.9365</v>
+        <v>37563.9782</v>
       </c>
       <c r="G46" t="n">
-        <v>12.565</v>
+        <v>1054548.960465079</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K46" t="n">
         <v>12.5</v>
       </c>
@@ -2334,22 +2322,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C47" t="n">
         <v>12.5</v>
       </c>
       <c r="D47" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E47" t="n">
         <v>12.5</v>
       </c>
       <c r="F47" t="n">
-        <v>3593.0595</v>
+        <v>77911</v>
       </c>
       <c r="G47" t="n">
-        <v>12.565</v>
+        <v>976637.9604650792</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2376,22 +2364,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E48" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>89093.717</v>
       </c>
       <c r="G48" t="n">
-        <v>12.56</v>
+        <v>887544.2434650792</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2418,7 +2406,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C49" t="n">
         <v>12.5</v>
@@ -2427,13 +2415,13 @@
         <v>12.5</v>
       </c>
       <c r="E49" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F49" t="n">
-        <v>23993.1009</v>
+        <v>162266.4973</v>
       </c>
       <c r="G49" t="n">
-        <v>12.555</v>
+        <v>1049810.740765079</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2460,7 +2448,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C50" t="n">
         <v>12.5</v>
@@ -2469,13 +2457,13 @@
         <v>12.5</v>
       </c>
       <c r="E50" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>73813.4492</v>
       </c>
       <c r="G50" t="n">
-        <v>12.55</v>
+        <v>1049810.740765079</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2514,10 +2502,10 @@
         <v>12.5</v>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>13240</v>
       </c>
       <c r="G51" t="n">
-        <v>12.545</v>
+        <v>1049810.740765079</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2556,20 +2544,18 @@
         <v>12.5</v>
       </c>
       <c r="F52" t="n">
-        <v>100</v>
+        <v>6620</v>
       </c>
       <c r="G52" t="n">
-        <v>12.54</v>
+        <v>1049810.740765079</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>12.5</v>
       </c>
@@ -2600,20 +2586,18 @@
         <v>12.5</v>
       </c>
       <c r="F53" t="n">
-        <v>282472.2016</v>
+        <v>6530</v>
       </c>
       <c r="G53" t="n">
-        <v>12.535</v>
+        <v>1049810.740765079</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>12.5</v>
       </c>
@@ -2632,32 +2616,30 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C54" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D54" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E54" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>51000</v>
       </c>
       <c r="G54" t="n">
-        <v>12.545</v>
+        <v>1049810.740765079</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>12.5</v>
       </c>
@@ -2676,32 +2658,30 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C55" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D55" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E55" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F55" t="n">
-        <v>220000</v>
+        <v>1503.8721</v>
       </c>
       <c r="G55" t="n">
-        <v>12.55</v>
+        <v>1048306.868665079</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>12.5</v>
       </c>
@@ -2720,22 +2700,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C56" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D56" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E56" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>3710</v>
+        <v>203</v>
       </c>
       <c r="G56" t="n">
-        <v>12.555</v>
+        <v>1048306.868665079</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2774,10 +2754,10 @@
         <v>12.5</v>
       </c>
       <c r="F57" t="n">
-        <v>4066.3587</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>12.555</v>
+        <v>1048316.868665079</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2804,22 +2784,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C58" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D58" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E58" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F58" t="n">
-        <v>51</v>
+        <v>316840.6081</v>
       </c>
       <c r="G58" t="n">
-        <v>12.555</v>
+        <v>1048316.868665079</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2858,10 +2838,10 @@
         <v>12.5</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>1605.8721</v>
       </c>
       <c r="G59" t="n">
-        <v>12.55</v>
+        <v>1048316.868665079</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2888,22 +2868,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C60" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D60" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E60" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F60" t="n">
-        <v>23201.6694</v>
+        <v>23420</v>
       </c>
       <c r="G60" t="n">
-        <v>12.555</v>
+        <v>1048316.868665079</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2942,10 +2922,10 @@
         <v>12.6</v>
       </c>
       <c r="F61" t="n">
-        <v>38077.7808</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>12.555</v>
+        <v>1048326.868665079</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2972,7 +2952,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C62" t="n">
         <v>12.6</v>
@@ -2981,13 +2961,13 @@
         <v>12.6</v>
       </c>
       <c r="E62" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F62" t="n">
-        <v>15271.5814</v>
+        <v>150011</v>
       </c>
       <c r="G62" t="n">
-        <v>12.555</v>
+        <v>1048326.868665079</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3014,22 +2994,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F63" t="n">
-        <v>370297.4845</v>
+        <v>12375.1612</v>
       </c>
       <c r="G63" t="n">
-        <v>12.555</v>
+        <v>1035951.707465079</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3056,22 +3036,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C64" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D64" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E64" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F64" t="n">
-        <v>291823.0708</v>
+        <v>10768.9135</v>
       </c>
       <c r="G64" t="n">
-        <v>12.56</v>
+        <v>1035951.707465079</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3098,22 +3078,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C65" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D65" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E65" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F65" t="n">
-        <v>255399.7244</v>
+        <v>66.9841</v>
       </c>
       <c r="G65" t="n">
-        <v>12.57</v>
+        <v>1036018.691565079</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3140,22 +3120,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C66" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D66" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E66" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F66" t="n">
-        <v>153456.8973</v>
+        <v>29231.0865</v>
       </c>
       <c r="G66" t="n">
-        <v>12.575</v>
+        <v>1006787.605065079</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3182,22 +3162,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C67" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="D67" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="E67" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F67" t="n">
-        <v>253845.703</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>12.585</v>
+        <v>1006787.605065079</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3224,22 +3204,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C68" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D68" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E68" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F68" t="n">
-        <v>216898.259</v>
+        <v>31</v>
       </c>
       <c r="G68" t="n">
-        <v>12.6</v>
+        <v>1006787.605065079</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3266,22 +3246,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C69" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="D69" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="E69" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F69" t="n">
-        <v>264332.8582</v>
+        <v>72.72</v>
       </c>
       <c r="G69" t="n">
-        <v>12.625</v>
+        <v>1006787.605065079</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3308,22 +3288,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C70" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E70" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F70" t="n">
-        <v>23090</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>12.65</v>
+        <v>1006787.605065079</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3350,22 +3330,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C71" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="D71" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F71" t="n">
-        <v>70257.62480000001</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>12.675</v>
+        <v>1006777.605065079</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3392,30 +3372,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C72" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E72" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F72" t="n">
-        <v>89315.57399999999</v>
+        <v>902.2123</v>
       </c>
       <c r="G72" t="n">
-        <v>12.7</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K72" t="n">
         <v>12.5</v>
       </c>
@@ -3434,22 +3416,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C73" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D73" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E73" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="F73" t="n">
-        <v>63702.71934496124</v>
+        <v>376.8681</v>
       </c>
       <c r="G73" t="n">
-        <v>12.715</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3476,22 +3458,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="C74" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D74" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E74" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F74" t="n">
-        <v>15.8062</v>
+        <v>338.8798</v>
       </c>
       <c r="G74" t="n">
-        <v>12.73</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3518,22 +3500,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="C75" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E75" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F75" t="n">
-        <v>40908.92925503876</v>
+        <v>304.7207</v>
       </c>
       <c r="G75" t="n">
-        <v>12.745</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3560,30 +3542,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E76" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F76" t="n">
-        <v>39728.0769</v>
+        <v>520.3899</v>
       </c>
       <c r="G76" t="n">
-        <v>12.765</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K76" t="n">
         <v>12.5</v>
       </c>
@@ -3602,22 +3586,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C77" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="D77" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F77" t="n">
-        <v>421394.5374</v>
+        <v>221.5495</v>
       </c>
       <c r="G77" t="n">
-        <v>12.79</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3644,22 +3628,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="C78" t="n">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="D78" t="n">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="E78" t="n">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="F78" t="n">
-        <v>12.5151</v>
+        <v>199.2173</v>
       </c>
       <c r="G78" t="n">
-        <v>12.82</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3686,30 +3670,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C79" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E79" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F79" t="n">
-        <v>22902.945</v>
+        <v>179.1362</v>
       </c>
       <c r="G79" t="n">
-        <v>12.845</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K79" t="n">
         <v>12.5</v>
       </c>
@@ -3728,30 +3714,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="C80" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="D80" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="E80" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="F80" t="n">
-        <v>28.1439</v>
+        <v>744.2989</v>
       </c>
       <c r="G80" t="n">
-        <v>12.87</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K80" t="n">
         <v>12.5</v>
       </c>
@@ -3770,30 +3758,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F81" t="n">
-        <v>7000</v>
+        <v>316.8759</v>
       </c>
       <c r="G81" t="n">
-        <v>12.89</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K81" t="n">
         <v>12.5</v>
       </c>
@@ -3812,30 +3802,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="C82" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="D82" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="E82" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="F82" t="n">
-        <v>21.3358</v>
+        <v>284.9348</v>
       </c>
       <c r="G82" t="n">
-        <v>12.915</v>
+        <v>1007679.817365079</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K82" t="n">
         <v>12.5</v>
       </c>
@@ -3854,40 +3846,42 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C83" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="D83" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F83" t="n">
-        <v>10500</v>
+        <v>313.2134</v>
       </c>
       <c r="G83" t="n">
-        <v>12.935</v>
+        <v>1007366.603965079</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K83" t="n">
         <v>12.5</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1.035</v>
+        <v>1</v>
       </c>
       <c r="N83" t="inlineStr"/>
     </row>
@@ -3896,32 +3890,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="C84" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="D84" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E84" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="F84" t="n">
-        <v>34265.5646</v>
+        <v>437.5512</v>
       </c>
       <c r="G84" t="n">
-        <v>12.945</v>
+        <v>1007804.155165079</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3932,32 +3934,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="C85" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D85" t="n">
-        <v>13.1</v>
+        <v>12.5</v>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F85" t="n">
-        <v>2877.729478625954</v>
+        <v>186.282</v>
       </c>
       <c r="G85" t="n">
-        <v>12.965</v>
+        <v>1007804.155165079</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3968,32 +3976,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C86" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D86" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E86" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F86" t="n">
-        <v>1427</v>
+        <v>167.5047</v>
       </c>
       <c r="G86" t="n">
-        <v>12.98</v>
+        <v>1007804.155165079</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4004,32 +4018,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="C87" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D87" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="E87" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F87" t="n">
-        <v>50005.1114</v>
+        <v>153406.9869</v>
       </c>
       <c r="G87" t="n">
-        <v>12.985</v>
+        <v>854397.1682650791</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4040,32 +4060,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="D88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="F88" t="n">
-        <v>16.0769</v>
+        <v>61</v>
       </c>
       <c r="G88" t="n">
-        <v>12.995</v>
+        <v>854458.1682650791</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4076,32 +4102,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="C89" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="D89" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="F89" t="n">
-        <v>16.0769</v>
+        <v>69686.4149</v>
       </c>
       <c r="G89" t="n">
-        <v>12.995</v>
+        <v>784771.7533650792</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4112,32 +4144,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C90" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D90" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E90" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F90" t="n">
-        <v>25070.223</v>
+        <v>44963.598</v>
       </c>
       <c r="G90" t="n">
-        <v>12.985</v>
+        <v>784771.7533650792</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4148,32 +4188,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C91" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D91" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E91" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F91" t="n">
-        <v>75837.72229999999</v>
+        <v>3011.0325</v>
       </c>
       <c r="G91" t="n">
-        <v>12.975</v>
+        <v>784771.7533650792</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K91" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4184,32 +4232,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C92" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D92" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E92" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F92" t="n">
-        <v>142471.3514</v>
+        <v>45720.4809</v>
       </c>
       <c r="G92" t="n">
-        <v>12.965</v>
+        <v>784771.7533650792</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4220,32 +4276,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C93" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="D93" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="E93" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>33434.4569</v>
       </c>
       <c r="G93" t="n">
-        <v>12.97</v>
+        <v>784771.7533650792</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4256,32 +4320,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="C94" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D94" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E94" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F94" t="n">
-        <v>39362.1092</v>
+        <v>11961.0624</v>
       </c>
       <c r="G94" t="n">
-        <v>12.965</v>
+        <v>784771.7533650792</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K94" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4292,32 +4364,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="C95" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="D95" t="n">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="E95" t="n">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="F95" t="n">
-        <v>14168.503</v>
+        <v>70143.99980000001</v>
       </c>
       <c r="G95" t="n">
-        <v>12.965</v>
+        <v>784771.7533650792</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4328,32 +4408,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="C96" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D96" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E96" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="F96" t="n">
-        <v>197997.5747</v>
+        <v>263159.3201</v>
       </c>
       <c r="G96" t="n">
-        <v>12.95</v>
+        <v>1047931.073465079</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K96" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4364,32 +4452,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C97" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D97" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="E97" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F97" t="n">
-        <v>50694.1865</v>
+        <v>168667.6749</v>
       </c>
       <c r="G97" t="n">
-        <v>12.935</v>
+        <v>1047931.073465079</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4412,20 +4508,28 @@
         <v>12.6</v>
       </c>
       <c r="F98" t="n">
-        <v>269058</v>
+        <v>69250.34</v>
       </c>
       <c r="G98" t="n">
-        <v>12.905</v>
+        <v>1117181.413465079</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4436,22 +4540,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C99" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D99" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E99" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F99" t="n">
-        <v>45848.2164</v>
+        <v>10425</v>
       </c>
       <c r="G99" t="n">
-        <v>12.89</v>
+        <v>1117181.413465079</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4460,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4472,22 +4582,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C100" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D100" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E100" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>160091.309</v>
       </c>
       <c r="G100" t="n">
-        <v>12.87</v>
+        <v>1117181.413465079</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4496,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4520,10 +4636,10 @@
         <v>12.6</v>
       </c>
       <c r="F101" t="n">
-        <v>50000</v>
+        <v>178526.0396</v>
       </c>
       <c r="G101" t="n">
-        <v>12.85</v>
+        <v>1117181.413465079</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4532,8 +4648,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4556,20 +4678,28 @@
         <v>12.6</v>
       </c>
       <c r="F102" t="n">
-        <v>264200.1673</v>
+        <v>912</v>
       </c>
       <c r="G102" t="n">
-        <v>12.825</v>
+        <v>1118093.413465079</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4583,19 +4713,19 @@
         <v>12.6</v>
       </c>
       <c r="C103" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D103" t="n">
         <v>12.6</v>
       </c>
       <c r="E103" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F103" t="n">
-        <v>413478.1455</v>
+        <v>69544.63559999999</v>
       </c>
       <c r="G103" t="n">
-        <v>12.805</v>
+        <v>1048548.777865079</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4604,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4616,32 +4752,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C104" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D104" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E104" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F104" t="n">
-        <v>39421.0683</v>
+        <v>139272.5113</v>
       </c>
       <c r="G104" t="n">
-        <v>12.785</v>
+        <v>1048548.777865079</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K104" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4652,22 +4796,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C105" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D105" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E105" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F105" t="n">
-        <v>37450.0149</v>
+        <v>2112.9266</v>
       </c>
       <c r="G105" t="n">
-        <v>12.755</v>
+        <v>1046435.851265079</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4676,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4700,20 +4850,28 @@
         <v>12.5</v>
       </c>
       <c r="F106" t="n">
-        <v>119742.5977</v>
+        <v>6699</v>
       </c>
       <c r="G106" t="n">
-        <v>12.73</v>
+        <v>1053134.851265079</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4736,20 +4894,28 @@
         <v>12.5</v>
       </c>
       <c r="F107" t="n">
-        <v>31515.999</v>
+        <v>2112.9266</v>
       </c>
       <c r="G107" t="n">
-        <v>12.71</v>
+        <v>1053134.851265079</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4772,10 +4938,10 @@
         <v>12.5</v>
       </c>
       <c r="F108" t="n">
-        <v>49204.8865</v>
+        <v>38584.5907</v>
       </c>
       <c r="G108" t="n">
-        <v>12.685</v>
+        <v>1053134.851265079</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4784,8 +4950,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4796,32 +4968,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C109" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D109" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E109" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F109" t="n">
-        <v>408.1549</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>12.66</v>
+        <v>1053144.851265079</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4832,22 +5012,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C110" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D110" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E110" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F110" t="n">
-        <v>10618.3247</v>
+        <v>161279.4046</v>
       </c>
       <c r="G110" t="n">
-        <v>12.64</v>
+        <v>1053144.851265079</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4856,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4868,22 +5054,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C111" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D111" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E111" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F111" t="n">
-        <v>50000</v>
+        <v>10398.9375</v>
       </c>
       <c r="G111" t="n">
-        <v>12.62</v>
+        <v>1042745.913765079</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4892,8 +5078,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4904,22 +5096,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="C112" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="D112" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="E112" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="F112" t="n">
-        <v>159904.8457</v>
+        <v>3337.0973</v>
       </c>
       <c r="G112" t="n">
-        <v>12.595</v>
+        <v>1046083.011065079</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4928,8 +5120,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4940,22 +5138,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C113" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D113" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E113" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F113" t="n">
-        <v>7268.7487</v>
+        <v>4212.9027</v>
       </c>
       <c r="G113" t="n">
-        <v>12.57</v>
+        <v>1046083.011065079</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4964,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4976,22 +5180,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C114" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D114" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="E114" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F114" t="n">
-        <v>15</v>
+        <v>79365.0793</v>
       </c>
       <c r="G114" t="n">
-        <v>12.55</v>
+        <v>1046083.011065079</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -5000,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5012,22 +5222,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F115" t="n">
-        <v>14.8</v>
+        <v>79365.0793</v>
       </c>
       <c r="G115" t="n">
-        <v>12.53</v>
+        <v>1046083.011065079</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5036,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5060,10 +5276,10 @@
         <v>12.5</v>
       </c>
       <c r="F116" t="n">
-        <v>26976.6971</v>
+        <v>7534.6558</v>
       </c>
       <c r="G116" t="n">
-        <v>12.52</v>
+        <v>1038548.355265079</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5072,8 +5288,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5084,32 +5306,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C117" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D117" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E117" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F117" t="n">
-        <v>20000</v>
+        <v>131042.9365</v>
       </c>
       <c r="G117" t="n">
-        <v>12.51</v>
+        <v>1169591.291765079</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5120,22 +5350,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C118" t="n">
         <v>12.5</v>
       </c>
       <c r="D118" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E118" t="n">
         <v>12.5</v>
       </c>
       <c r="F118" t="n">
-        <v>13</v>
+        <v>3593.0595</v>
       </c>
       <c r="G118" t="n">
-        <v>12.505</v>
+        <v>1165998.232265079</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5144,8 +5374,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5156,36 +5392,2788 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C119" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D119" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E119" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F119" t="n">
+        <v>10</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1165998.232265079</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>23993.1009</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1165998.232265079</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>100</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1165998.232265079</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1165998.232265079</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>100</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1165998.232265079</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>282472.2016</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1165998.232265079</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1166008.232265079</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K125" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>220000</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1166008.232265079</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3710</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1166008.232265079</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4066.3587</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1161941.873565079</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>51</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1161992.873565079</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1161982.873565079</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>23201.6694</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1185184.542965079</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>38077.7808</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1185184.542965079</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15271.5814</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1185184.542965079</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>370297.4845</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1185184.542965079</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>291823.0708</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1477007.613765079</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>255399.7244</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1477007.613765079</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>153456.8973</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1630464.511065079</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>253845.703</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1630464.511065079</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>216898.259</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1847362.770065079</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>13</v>
+      </c>
+      <c r="C140" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E140" t="n">
+        <v>13</v>
+      </c>
+      <c r="F140" t="n">
+        <v>264332.8582</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2111695.628265079</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>13</v>
+      </c>
+      <c r="C141" t="n">
+        <v>13</v>
+      </c>
+      <c r="D141" t="n">
+        <v>13</v>
+      </c>
+      <c r="E141" t="n">
+        <v>13</v>
+      </c>
+      <c r="F141" t="n">
+        <v>23090</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2088605.628265079</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>13</v>
+      </c>
+      <c r="C142" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>13</v>
+      </c>
+      <c r="F142" t="n">
+        <v>70257.62480000001</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2158863.253065079</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>13</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>13</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>89315.57399999999</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2069547.679065079</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>63702.71934496124</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2069547.679065079</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15.8062</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2069547.679065079</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C146" t="n">
+        <v>13</v>
+      </c>
+      <c r="D146" t="n">
+        <v>13</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>40908.92925503876</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2110456.608320118</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>13</v>
+      </c>
+      <c r="C147" t="n">
+        <v>13</v>
+      </c>
+      <c r="D147" t="n">
+        <v>13</v>
+      </c>
+      <c r="E147" t="n">
+        <v>13</v>
+      </c>
+      <c r="F147" t="n">
+        <v>39728.0769</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2110456.608320118</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>13</v>
+      </c>
+      <c r="C148" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>13</v>
+      </c>
+      <c r="F148" t="n">
+        <v>421394.5374</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2531851.145720118</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12.5151</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2531863.660820118</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1.008064516129032</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>13</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F150" t="n">
+        <v>22902.945</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2508960.715820118</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>28.1439</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2508988.859720118</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>13</v>
+      </c>
+      <c r="C152" t="n">
+        <v>13</v>
+      </c>
+      <c r="D152" t="n">
+        <v>13</v>
+      </c>
+      <c r="E152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2501988.859720118</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>21.3358</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2502010.195520118</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>13</v>
+      </c>
+      <c r="C154" t="n">
+        <v>13</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13</v>
+      </c>
+      <c r="E154" t="n">
+        <v>13</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2491510.195520118</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>34265.5646</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2457244.630920118</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>13</v>
+      </c>
+      <c r="D156" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>13</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2877.729478625954</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2460122.360398744</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>13</v>
+      </c>
+      <c r="C157" t="n">
+        <v>13</v>
+      </c>
+      <c r="D157" t="n">
+        <v>13</v>
+      </c>
+      <c r="E157" t="n">
+        <v>13</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1427</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2460122.360398744</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>50005.1114</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2410117.248998744</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>13</v>
+      </c>
+      <c r="C159" t="n">
+        <v>13</v>
+      </c>
+      <c r="D159" t="n">
+        <v>13</v>
+      </c>
+      <c r="E159" t="n">
+        <v>13</v>
+      </c>
+      <c r="F159" t="n">
+        <v>16.0769</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2410133.325898744</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>13</v>
+      </c>
+      <c r="C160" t="n">
+        <v>13</v>
+      </c>
+      <c r="D160" t="n">
+        <v>13</v>
+      </c>
+      <c r="E160" t="n">
+        <v>13</v>
+      </c>
+      <c r="F160" t="n">
+        <v>16.0769</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2410133.325898744</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>25070.223</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2385063.102898744</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>75837.72229999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2385063.102898744</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>142471.3514</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2385063.102898744</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2385073.102898744</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>39362.1092</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2345710.993698744</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>14168.503</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2345710.993698744</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>197997.5747</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2147713.418998744</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>50694.1865</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2147713.418998744</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>269058</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1878655.418998744</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>45848.2164</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1924503.635398744</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>10</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1924503.635398744</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1874503.635398744</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>264200.1673</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2138703.802698744</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>413478.1455</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1725225.657198744</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>39421.0683</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1725225.657198744</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>37450.0149</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1725225.657198744</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>119742.5977</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1725225.657198744</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>31515.999</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1725225.657198744</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>49204.8865</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1725225.657198744</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>408.1549</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1725225.657198744</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F181" t="n">
+        <v>10618.3247</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1714607.332498744</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1664607.332498744</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>159904.8457</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1664607.332498744</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7268.7487</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1671876.081198744</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F185" t="n">
+        <v>15</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1671876.081198744</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1671890.881198745</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>26976.6971</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1671890.881198745</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1671890.881198745</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>13</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1671890.881198745</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F190" t="n">
         <v>12.8571</v>
       </c>
-      <c r="G119" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="G190" t="n">
+        <v>1671903.738298744</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-30 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1870,10 +1870,14 @@
         <v>1016984.982265079</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1903,11 +1907,19 @@
         <v>1054548.960465079</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +1951,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -3388,7 +3406,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>12.4</v>
@@ -3425,7 +3443,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>12.4</v>
@@ -3466,7 +3484,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>12.4</v>
@@ -3507,7 +3525,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>12.4</v>
@@ -3544,7 +3562,7 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>12.4</v>
@@ -3585,7 +3603,7 @@
         <v>1047931.073465079</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>12.4</v>
@@ -3626,7 +3644,7 @@
         <v>1047931.073465079</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>12.5</v>
@@ -3667,11 +3685,9 @@
         <v>1117181.413465079</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>12.4</v>
       </c>
@@ -3825,11 +3841,9 @@
         <v>1118093.413465079</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>12.4</v>
       </c>
@@ -3944,11 +3958,9 @@
         <v>1046435.851265079</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>12.4</v>
       </c>
@@ -4531,11 +4543,9 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>12.4</v>
       </c>
@@ -4572,7 +4582,7 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>12.5</v>
@@ -4613,11 +4623,9 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>12.4</v>
       </c>
@@ -4654,11 +4662,9 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>12.4</v>
       </c>
@@ -4695,11 +4701,9 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>12.4</v>
       </c>
@@ -4736,11 +4740,9 @@
         <v>1166008.232265079</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>12.4</v>
       </c>
@@ -4777,11 +4779,9 @@
         <v>1166008.232265079</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>12.4</v>
       </c>
@@ -4818,11 +4818,9 @@
         <v>1166008.232265079</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>12.4</v>
       </c>
@@ -4859,11 +4857,9 @@
         <v>1161941.873565079</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>12.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>12.4</v>
       </c>
@@ -4900,11 +4896,9 @@
         <v>1161992.873565079</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>12.4</v>
       </c>
@@ -5448,7 +5442,7 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
@@ -5456,11 +5450,11 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.035322580645161</v>
+        <v>1</v>
       </c>
       <c r="M143" t="inlineStr"/>
     </row>
@@ -5490,8 +5484,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5523,8 +5523,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5556,8 +5562,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5589,8 +5601,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5622,8 +5640,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5655,8 +5679,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5688,8 +5718,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5718,11 +5754,17 @@
         <v>2508988.859720118</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5751,11 +5793,17 @@
         <v>2501988.859720118</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5784,11 +5832,17 @@
         <v>2502010.195520118</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5817,11 +5871,17 @@
         <v>2491510.195520118</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5850,11 +5910,17 @@
         <v>2457244.630920118</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5886,8 +5952,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5916,11 +5988,17 @@
         <v>2460122.360398744</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6030,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5982,13 +6066,19 @@
         <v>2410133.325898744</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>1.043387096774194</v>
       </c>
       <c r="M159" t="inlineStr"/>
     </row>
@@ -6015,7 +6105,7 @@
         <v>2410133.325898744</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6048,7 +6138,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6081,7 +6171,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6114,7 +6204,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6147,7 +6237,7 @@
         <v>2385073.102898744</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6180,7 +6270,7 @@
         <v>2345710.993698744</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6213,7 +6303,7 @@
         <v>2345710.993698744</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6246,7 +6336,7 @@
         <v>2147713.418998744</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6279,7 +6369,7 @@
         <v>2147713.418998744</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6312,7 +6402,7 @@
         <v>1878655.418998744</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6345,7 +6435,7 @@
         <v>1924503.635398744</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6378,7 +6468,7 @@
         <v>1924503.635398744</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6411,7 +6501,7 @@
         <v>1874503.635398744</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6444,7 +6534,7 @@
         <v>2138703.802698744</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6477,7 +6567,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6510,7 +6600,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6543,7 +6633,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6576,7 +6666,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6609,7 +6699,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6642,7 +6732,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6675,7 +6765,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6708,7 +6798,7 @@
         <v>1714607.332498744</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6741,7 +6831,7 @@
         <v>1664607.332498744</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6774,7 +6864,7 @@
         <v>1664607.332498744</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6807,7 +6897,7 @@
         <v>1671876.081198744</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6840,7 +6930,7 @@
         <v>1671876.081198744</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6873,7 +6963,7 @@
         <v>1671890.881198745</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6906,7 +6996,7 @@
         <v>1671890.881198745</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6939,7 +7029,7 @@
         <v>1671890.881198745</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6972,7 +7062,7 @@
         <v>1671890.881198745</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7005,7 +7095,7 @@
         <v>1671903.738298744</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7016,6 +7106,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-30 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1672,10 +1672,14 @@
         <v>1029423.110565079</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1708,8 +1712,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1751,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1870,14 +1886,10 @@
         <v>1016984.982265079</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1907,19 +1919,11 @@
         <v>1054548.960465079</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1951,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -3406,14 +3404,10 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3451,11 +3445,7 @@
       <c r="J92" t="n">
         <v>12.4</v>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3533,7 +3523,11 @@
       <c r="J94" t="n">
         <v>12.4</v>
       </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3570,11 +3564,7 @@
       <c r="J95" t="n">
         <v>12.4</v>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3685,9 +3675,11 @@
         <v>1117181.413465079</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J98" t="n">
         <v>12.4</v>
       </c>
@@ -4582,11 +4574,9 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>12.4</v>
       </c>
@@ -5286,7 +5276,7 @@
         <v>1847362.770065079</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
@@ -5294,11 +5284,11 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>1.035322580645161</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
@@ -5325,17 +5315,11 @@
         <v>2111695.628265079</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5364,17 +5348,11 @@
         <v>2088605.628265079</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5403,17 +5381,11 @@
         <v>2158863.253065079</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5442,17 +5414,11 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5481,17 +5447,11 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5523,14 +5483,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5559,17 +5513,11 @@
         <v>2110456.608320118</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5601,14 +5549,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5640,14 +5582,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5679,14 +5615,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5718,14 +5648,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5757,14 +5681,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5796,14 +5714,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5835,14 +5747,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5874,14 +5780,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5913,14 +5813,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5952,14 +5846,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5991,14 +5879,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6030,14 +5912,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6066,19 +5942,13 @@
         <v>2410133.325898744</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>1.043387096774194</v>
+        <v>1</v>
       </c>
       <c r="M159" t="inlineStr"/>
     </row>
@@ -6105,7 +5975,7 @@
         <v>2410133.325898744</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6138,7 +6008,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6171,7 +6041,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6270,7 +6140,7 @@
         <v>2345710.993698744</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6303,7 +6173,7 @@
         <v>2345710.993698744</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6336,7 +6206,7 @@
         <v>2147713.418998744</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6600,7 +6470,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6633,7 +6503,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6666,7 +6536,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6699,7 +6569,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6732,7 +6602,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6765,7 +6635,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6798,7 +6668,7 @@
         <v>1714607.332498744</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6831,7 +6701,7 @@
         <v>1664607.332498744</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6864,7 +6734,7 @@
         <v>1664607.332498744</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6897,7 +6767,7 @@
         <v>1671876.081198744</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6930,7 +6800,7 @@
         <v>1671876.081198744</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6963,7 +6833,7 @@
         <v>1671890.881198745</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6996,7 +6866,7 @@
         <v>1671890.881198745</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7029,7 +6899,7 @@
         <v>1671890.881198745</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7062,7 +6932,7 @@
         <v>1671890.881198745</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7095,7 +6965,7 @@
         <v>1671903.738298744</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7106,6 +6976,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-30 BackTest ORBS.xlsx
@@ -1672,14 +1672,10 @@
         <v>1029423.110565079</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>12.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1712,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1751,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -3173,10 +3157,14 @@
         <v>1007804.155165079</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3206,11 +3194,19 @@
         <v>1007804.155165079</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3242,8 +3238,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3305,10 +3307,14 @@
         <v>854458.1682650791</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J88" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3338,11 +3344,19 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3371,11 +3385,19 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3404,10 +3426,14 @@
         <v>784771.7533650792</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>12.4</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3445,7 +3471,11 @@
       <c r="J92" t="n">
         <v>12.4</v>
       </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3553,7 @@
       <c r="J94" t="n">
         <v>12.4</v>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3564,7 +3590,11 @@
       <c r="J95" t="n">
         <v>12.4</v>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3716,9 +3746,11 @@
         <v>1117181.413465079</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J99" t="n">
         <v>12.4</v>
       </c>
@@ -3794,9 +3826,11 @@
         <v>1117181.413465079</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J101" t="n">
         <v>12.4</v>
       </c>
@@ -3833,9 +3867,11 @@
         <v>1118093.413465079</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J102" t="n">
         <v>12.4</v>
       </c>
@@ -3872,9 +3908,11 @@
         <v>1048548.777865079</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J103" t="n">
         <v>12.4</v>
       </c>
@@ -4418,9 +4456,11 @@
         <v>1169591.291765079</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J117" t="n">
         <v>12.4</v>
       </c>
@@ -4574,9 +4614,11 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J121" t="n">
         <v>12.4</v>
       </c>
@@ -4652,9 +4694,11 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J123" t="n">
         <v>12.4</v>
       </c>
@@ -4691,9 +4735,11 @@
         <v>1165998.232265079</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J124" t="n">
         <v>12.4</v>
       </c>
@@ -5276,7 +5322,7 @@
         <v>1847362.770065079</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
@@ -5284,11 +5330,11 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.035322580645161</v>
+        <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
@@ -5315,11 +5361,17 @@
         <v>2111695.628265079</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5348,11 +5400,17 @@
         <v>2088605.628265079</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5381,11 +5439,17 @@
         <v>2158863.253065079</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5414,11 +5478,17 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5447,11 +5517,17 @@
         <v>2069547.679065079</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5483,8 +5559,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5513,11 +5595,17 @@
         <v>2110456.608320118</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5549,8 +5637,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5582,8 +5676,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5612,15 +5712,23 @@
         <v>2531863.660820118</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>1.059516129032258</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.016129032258065</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5645,7 +5753,7 @@
         <v>2508960.715820118</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5711,7 +5819,7 @@
         <v>2501988.859720118</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5744,7 +5852,7 @@
         <v>2502010.195520118</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5777,7 +5885,7 @@
         <v>2491510.195520118</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5810,7 +5918,7 @@
         <v>2457244.630920118</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5843,7 +5951,7 @@
         <v>2460122.360398744</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5909,7 +6017,7 @@
         <v>2410117.248998744</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5975,7 +6083,7 @@
         <v>2410133.325898744</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6008,7 +6116,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6041,7 +6149,7 @@
         <v>2385063.102898744</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6107,7 +6215,7 @@
         <v>2385073.102898744</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6239,7 +6347,7 @@
         <v>2147713.418998744</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6272,7 +6380,7 @@
         <v>1878655.418998744</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6305,7 +6413,7 @@
         <v>1924503.635398744</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6338,7 +6446,7 @@
         <v>1924503.635398744</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6371,7 +6479,7 @@
         <v>1874503.635398744</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6404,7 +6512,7 @@
         <v>2138703.802698744</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6437,7 +6545,7 @@
         <v>1725225.657198744</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
